--- a/deuChatbot/research_result/table_to_json(2500_0).xlsx
+++ b/deuChatbot/research_result/table_to_json(2500_0).xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
       <selection activeCell="B207" sqref="B207"/>
@@ -20722,6 +20722,6879 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 포함하고 있지 않다고 주장하지만, 제공된 소스 텍스트에는 실기시험에 대한 구체적인 정보가 포함되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 소스 텍스트와 상반된 내용을 담고 있습니다. 소스 텍스트는 실기시험에 대한 정보를 제공하는 반면, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 1  
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 없습니다. 소스 텍스트는 실기시험에 대한 정보를 제공하는 반면, 생성된 응답은 다른 주제에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 소스 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다. 주제와 관련된 정보가 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 소스 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6242613710114444</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 "디자인조형학과의 실기시험"에 대한 내용이 포함되어 있지 않습니다. 제공된 정보는 주로 학생부종합전형과 조기취업형계약학과전형에 대한 규칙과 절차를 다루고 있습니다.
+만약 디자인조형학과의 실기시험에 대해 알고 싶다면, 해당 대학의 공식 웹사이트나 입학처와 직접 문의해보시는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다. 
+"https://ipsi.deu.ac.kr/main.do" 라는 URL로 접속하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기 및 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트에 직접적으로 관련되어 있으며, 필요한 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽고 일관됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 및 정확성 모든 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.865498448960619</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 두 가지가 있습니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**:
+  - 기초디자인: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+  - 사고의 전환: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지3절입니다.
+- **시간**: 각 종목 모두 5시간 동안 진행됩니다.
+이러한 준비물과 실기주제, 화지크기 및 시간을 참고하여 디자인조형학과의 실기고사를 준비하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9231845918584201</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)과 축구(남)의 경우, 다음과 같은 대회들이 인정대회로 지정되어 있습니다.
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회(주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 주제A의 내용은 정확하게 반영하고 있지만, 주제B의 내용에서 "콜라병", "포카리스웨트(캔)", "마스크", "시계", "맥가이버 칼"은 원본 텍스트에 포함되어 있지 않은 항목들입니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 주제A의 항목은 일치하지만, 주제B의 항목에서 원본 텍스트와 일치하지 않는 부분이 있어 일관성이 떨어집니다. 또한, "예시 주제들로는 잠자리와 저울, 콜라병과 계절 등이 있습니다."라는 문장은 원본 텍스트의 예시와 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있지만, 주제B의 항목이 원본과 다르기 때문에 완전한 관련성을 가지지 않습니다. 그러나 주제A는 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제A와 주제B를 명확하게 구분하고 있습니다. 그러나 예시 주제의 불일치로 인해 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 주제A의 내용은 정확하지만, 주제B의 내용에서 여러 항목이 원본 텍스트와 일치하지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 전반적으로 응답은 괜찮지만, 사실성과 일관성에서 문제가 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 주제B의 항목에서 부적절한 내용이 포함되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 내용의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8799163846581005</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 선정하여 연결된 주제로 준비해야 합니다. 예시 주제들로는 잠자리와 저울, 콜라병과 계절 등이 있습니다.
+주제A:
+- 잠자리
+- 무궁화
+- 피망
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 콜라병
+- 포카리스웨트(캔)
+- 마스크
+- 시계
+- 맥가이버 칼
+각 주제는 당일 추첨을 통해 선정되므로, 준비할 때 다양한 주제를 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 동의대학교 나군 학생부교과 전형에서 반영되지 않는다는 사실을 정확하게 전달하고 있습니다. 그러나 "학생부종합(조기취업형계약학과전형)"에 대한 언급은 원문에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서 원문과 일치하지만, "학생부종합(조기취업형계약학과전형)"이라는 추가 정보가 원문과의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출결 점수와 관련된 질문에 대해 직접적으로 답변하고 있으며, 주제와 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 출결 점수에 대한 설명이 일관되게 이어집니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하지만, 다른 전형에 대한 언급이 원문과의 정확성을 약간 저해합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 출결 점수와 관련된 질문에 대한 적절한 답변을 제공합니다. 그러나 추가된 정보가 원문과의 의미적 일관성을 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 추가된 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6729821791247167</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부종합(조기취업형계약학과전형)에서는 출결 상황이 반영되지 않습니다. 출결 점수는 다른 전형에만 반영됩니다.
+따라서, 출결 점수가 동의대학교 나군 학생부교과 전형에서 반영되는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 동일한 사실을 전달하고 있으며, 모집 인원과 전형에 대한 정보가 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9740829156607574</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 모집 인원과 전형에 대한 정보가 정확하게 반영되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8744712334064205</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로는 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 나군 일반학생 전형의 모집 인원에 대한 정보를 제공하지 않으며, 원래의 정보와는 상반된 내용을 포함하고 있습니다. 원래의 텍스트는 22명의 신입생을 선발한다고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 모집 인원에 대한 명확한 정보를 제공하는 반면, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다. 원본 텍스트의 핵심 정보인 모집 인원에 대한 언급이 없기 때문입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본 정보와의 연관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있습니다. 원본 텍스트는 22명의 신입생을 선발한다고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 원본의 핵심 정보를 무시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.5784013000783866</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 의료보건생활대학 간호학과 나군 일반학생 전형의 정원외 모집인원에 대한 정보가 없습니다. 추가 정보를 확인하기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 영어 등급에 따른 점수를 잘못 제시하고 있으며, 원본 텍스트의 점수와 전혀 일치하지 않습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본의 점수와 생성된 점수는 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 수능 영어 등급에 따른 점수에 대한 질문에 직접적으로 답변하고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 점수와 그 사용 목적에 대한 설명이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 점수와 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 평가를 받을 수 있습니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 주제와 관련이 있지만, 제공된 정보가 잘못되어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8511856262391407</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같이 반영됩니다:
+- 등급 1: 100점
+- 등급 2: 85점
+- 등급 3: 70점
+- 등급 4: 55점
+- 등급 5: 40점
+이 점수들은 수능 영어 등급에 따라 학생들의 성적을 평가하는 데 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문과의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 모순으로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 예술고 학생의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으나, 관련성 및 유창성에서 다소 긍정적인 평가를 받았습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7003459610806988</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 
+관련 정보를 보면, 나군 학생부교과 농어촌학생전형의 고교유형별 지원자격에서 예술고는 지원이 가능하다고 명시되어 있습니다.
+따라서 예술고 학생도 해당 전형을 통해 지원할 수 있는 자격이 주어진다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 4등급 기록을 "220cm 이상"으로 잘못 제시하고 있으며, 배점도 "300점"으로 잘못 기재되어 있습니다. 원본 텍스트의 기록 범위는 "218~221 cm"이고 배점은 "275점"입니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 기록과 배점 모두 원본과 일치하지 않으므로 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 다만, 정보의 정확성이 떨어지기 때문에 완전한 유창성은 아닙니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보는 원본 텍스트와 비교했을 때 매우 부정확합니다. 기록과 배점 모두 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 사실성과 정확성에서 큰 문제가 있지만, 관련성과 유창성은 어느 정도 유지되고 있습니다. 그러나 전반적으로 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 내용을 다루고 있으나, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 정보는 명확하게 전달되지만, 잘못된 내용으로 인해 혼란을 줄 수 있습니다. 전반적으로 이해하기 쉬운 문장 구조를 가지고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.9043053183240458</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기의 4등급 기록은 220cm 이상이며, 이 기록에 대한 배점은 300점입니다.
+이 정보는 다음과 같이 요약됩니다:
+- 등급: 4
+- 기록(여자): 220cm 이상
+- 배점: 300점
+더 자세한 내용이나 다른 질문이 있으시다면 언제든지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 명시되어 있지 않다고 주장하지만, 원본 텍스트에서는 명확하게 12%라고 언급하고 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율을 명확히 제시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 질문에 대한 답변을 제공하지 않고, 대신 다른 학과들의 정보와 공식 웹사이트를 참조하라고 안내하고 있습니다. 원본 텍스트와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 핵심 정보를 무시하고 다른 주제로 넘어가면서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 경기지도학과의 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 부적절한 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 원본 텍스트와의 관련성이 떨어져서 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5854928425591401</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과의 출결 반영 비율에 대한 명시는 없습니다. 다른 학과들의 경우 결석일수와 반영점수를 연결하여 설명하고 있지만, 경기지도학과에 대한 구체적인 출결 반영 비율은 해당 정보에는 포함되어 있지 않습니다.
+만약 동의대학교 경기지도학과에서 출결이 성적 산출이나 학업평가에 영향을 미치는지 알고 싶다면, 대학의 공식 웹사이트나 관계부서에 직접 문의해보시는 것이 가장 정확한 정보를 얻는 방법일 것입니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트로 접속하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가 정보도 관련성이 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가 정보도 원본의 맥락을 잘 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 추가 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.51438830456884</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.
+추가 정보:
+- 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 사실을 무시하고, 응용화학과가 신설되지 않았다는 잘못된 정보를 포함하고 있습니다. 또한, 응용화학과에 대한 데이터가 없다는 내용도 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 수능 최저 학력 기준이 없다고 명시하고 있지만, 생성된 응답은 응용화학과에 대한 정보가 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 응용화학과에 대한 불필요한 정보가 포함되어 있어 주제에서 벗어나 있습니다. 수능 최저 기준에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 일관된 흐름을 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 최저 학력 기준이 없다는 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편이지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.3906164253864706</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 응용화학과가 신설되지 않았으며, 현재 정보로는 응용화학과 관련된 데이터가 없습니다. 응용화학과의 수능 최저기준을 확인하려면, 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인해보시거나, 직접 연락하시면 도움을 드릴 수 있습니다.
+더 자세한 정보를 원하신다면, https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 중 일부를 언급하고 있지만, 모든 신설 학과를 포함하지 않고 있습니다. 또한, "어떤 학과가 2024년에 신설되었는지 명확히 기재되어 있지 않다"는 주장은 사실과 다릅니다. 원문에는 모든 신설 학과가 명확히 나열되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 신설된 모든 학과를 언급하지 않아서 일관성이 떨어집니다. 원문에 있는 모든 학과를 포함하지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 관련된 정보를 제공하고 있지만, 모든 학과를 포함하지 않아서 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 모든 신설 학과를 포함하지 않아서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 신설된 모든 학과를 포함하지 않아서 정확성이 떨어집니다. 원문에 명시된 모든 학과를 반영하지 못했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 신설 학과의 모든 정보를 포함하지 않아서 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 모든 신설 학과를 포함하지 않아서 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 모든 정보를 포함하지 않아서 완전한 이해를 제공하지는 않습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.6834466410653157</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과가 있습니다. 하지만 주어진 정보에서는 '심리학과'와 '스마트항만물류학과', '창업투자경영학과' 중에서 어떤 학과가 2024년에 신설되었는지 명확히 기재되어 있지 않습니다. 
+따라서, 정확한 답변을 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해 주세요.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 서류 70%와 면접 30%의 비율을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그 비율을 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 부정확하여 주제에 대한 적절한 답변이 아닙니다. 원본 텍스트의 핵심 정보를 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와는 관련이 없기 때문에 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 그러나 일반적인 질문에 대한 답변 형식은 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도는 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6802200299740033</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 정확한 전형요소 반영비율 정보는 제공된 자료에서 확인할 수 없습니다. 해당 자료에서는 일반적으로 학생부 종합전형의 경우 교과 성적, 실기 성적 등이 반영되지만, 구체적인 비율은 각 모집단위별로 다를 수 있습니다.
+자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)에서 확인하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 "의료·보건·생활대학", "공과대학", "ICT융합공과대학"이 언급되었으나, 생성된 응답에서는 "물리치료학과"만을 강조하고 있습니다. 이는 원문에서 제공된 정보와 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서 언급된 모집단위는 모두 포함되지 않았고, 특정 학과에 대한 정보가 추가되었으나 이는 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점과 관련된 정보를 제공하고 있지만, 원문에서 언급된 모집단위에 대한 정보가 누락되어 있어 관련성이 떨어집니다. 물리치료학과에 대한 정보는 관련이 있지만, 전체적인 맥락에서 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 물리치료학과에 대한 정보를 중심으로 구성되어 있지만, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않으며, 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다르게 특정 학과에 대한 수치를 제시하고 있으나, 원문에서 언급된 모집단위에 대한 정확한 정보가 누락되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성 모두 낮은 점수를 받았으며, 전체적으로 원문과의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락이 맞지 않아 일부 내용이 부적절하게 느껴질 수 있습니다. 물리치료학과에 대한 정보는 적절하나, 전체적인 맥락에서 벗어나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 관계가 명확하지 않아 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7542087909542778</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과로는 "의료보건생활대학"의 각 학과들이 있습니다. 특히, "물리치료학과"와 "수능 4개 영역 (가산점 포함) 표준 변환 점수 합" 평균이 다른 학과들에 비해 높은 수치를 보여주고 있습니다.
+물리치료학과의 경우, "국어 + 수학 + 탐구(2개)  (가산점 포함) 표준 변환 점수 합"의 평균이 348.23이고, "수능 4개 영역  (가산점 포함) 표준 변환 점수 합"의 평균이 473.23으로 높은 수치를 보여주고 있습니다.
+따라서, 동의대학교에서 수능 가산점을 적용하는 학과는 "물리치료학과"가 대표적으로 예시로 들어갈 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 성적이 100% 반영된다는 사실을 정확하게 반영하고 있으며, 각 모집단위별 수능 반영 영역에 대한 추가 정보를 제공하고 있습니다. 그러나, 원문에서 언급된 '38페이지 Ⅴ. 수능성적 반영방법'에 대한 구체적인 내용은 포함되어 있지 않아 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 수능 성적의 반영 비율과 관련된 정보를 제공합니다. 다만, 추가된 세부사항이 원문에 명시된 내용과 완전히 일치하지 않기 때문에 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련된 정보를 잘 다루고 있으며, 수능 성적 반영에 대한 구체적인 내용을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽고 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 모집단위별 수능 반영 영역과 가산점에 대한 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 수능 성적 반영에 대한 정확한 정보를 제공하지만, 원문에서 언급된 특정 페이지에 대한 정보가 누락되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 세부사항의 누락으로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7401021788568377</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 전반적으로 100%로 반영됩니다. 
+다음은 각 모집단위별 수능 반영 영역 및 가산점에 대한 정보입니다:
+- **인문사회과학대학, 상경대학 모집단위 및 패션디자인학과**: 
+  - 수능 반영 영역: 국어(표준점수), 수학(미적분 또는 기하) (표준점수), 영어 (등급에 따른 점수)
+  - 가산점: 없음
+- **공과대학, ICT융합공과대학 모집단위**:
+  - 수능 반영 영역: 국어(표준점수), 수학(미적분 또는 기하) (표준점수), 영어 (등급에 따른 점수)
+  - 가산점: 없음
+따라서, 동의대학교에서 수능 성적은 모든 모집단위에서 중요한 평가 요소로 활용되며, 특히 국어와 수학 영역이 중점을 두고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜에 대한 정확한 정보를 제공하고 있으며, 추가적인 정보도 포함되어 있습니다. 그러나 원본 텍스트에 명시된 대기실 및 입실시간 안내에 대한 정보는 원본에 포함되어 있지 않으므로, 이 부분은 다소 부정확할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보와 일치하지만, 추가된 정보는 원본 텍스트와 일관성이 없습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 실기고사 날짜와 관련된 정보를 잘 다루고 있으며, 추가 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기고사 날짜에 대한 정보는 정확하지만, 추가된 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수는 다소 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본과의 연결이 약간 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 추가된 정보가 혼란을 줄 수 있는 요소가 있어 약간의 점수를 낮추었습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.816217488538909</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 진행됩니다. 
+추가로, 대기실 및 입실시간 안내는 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특정 모집단위가 제외된다는 정보를 제공하지 않고 있으며, 이는 원본 텍스트의 사실과 완전히 상반됩니다. 원본 텍스트에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트에서 제외된 모집단위가 명시되어 있는데, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 공식 홈페이지를 방문하라는 제안은 어느 정도 관련성이 있지만, 핵심 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다. 원본 텍스트의 내용을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보가 부정확하여 의미 전달이 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.549484727073389</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 특정 모집단위가 제외되는 정보는 제공된 자료에서 확인할 수 없습니다. 현재 자료에는 모든 모집단위에 대한 정원 내 모집인원이 포함되어 있으며, 각 모집단위별로 지원 가능한 고교유형들이 나열되어 있습니다.
+만약 특정 모집단위가 제외되었거나 변경되었다면, 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보를 확인해주세요.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공하는 정보와 정확히 일치하며, 사실에 기반한 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8511536790425979</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 없습니다. 
+다군 수능(일반학생전형)의 경우, 전형 요소 반영 비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 0%
+- 수능: 100%
+따라서, 이 전형에서는 수능 점수가 유일한 평가 요소이며, 수능 최저 기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있어 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬워, 독자가 내용을 쉽게 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8709262101362392</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+위와 같이 2024학년도 동의대학교에서는 여러 학과가 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수 가능성 및 웹사이트 링크)를 제공하고 있습니다. 그러나 "까지입니다"라는 표현은 원문과 약간의 차이가 있어 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있습니다. 다만, "까지입니다"라는 표현이 원문과 약간의 차이를 보이므로 완전한 일관성은 없다고 판단하여 점수를 4로 주었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보에 대해 매우 관련성이 높습니다. 원서접수 마감일과 시간 외에도 추가적인 정보가 포함되어 있어 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있습니다. 읽기에도 무리가 없으며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원서접수 마감일과 시간에 대한 정보는 정확하지만, "까지입니다"라는 표현이 원문과 다소 차이가 있어 완전한 정확성은 없다고 판단하여 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 표현에서 원문과의 차이가 있어 점수를 4로 주었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, "까지입니다"라는 표현이 원문과의 의미적 차이를 만들어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8077178760473973</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 접수 마감 시간은 오후 6시까지이며, 원서접수는 인터넷을 통해 가능합니다. 자세한 내용은 [http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com]를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 2024학년도 전형 요소 변화에 대한 정보가 아닌, 학과 명칭 변경 및 신설 학과에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다. 매우 낮은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6399417602915293</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **아동학과** - 보육·가정상담학과로 변경되었습니다.
+2. **금융경영학과** - 경제금융보험학과로 변경되었습니다.
+3. **경영정보학과, e비즈니스학과** - 정보경영학부(경영정보학, e비즈니스학)에서 분리되었습니다.
+4. **부동산자산경영학부(부동산투자학, 부동산개발경영학)** - 건설공학부의 일부를 분리하여 신설되었습니다.
+5. **화학공학과, 환경공학과, 응용화학과** - 화학환경공학부에서 분리되었습니다.
+6. **의생명공학과, 바이오의약공학과, 식품공학과** - 바이오응용공학부에서 분리되었습니다.
+7. **인간공학과, 제품디자인공학과** - 디자인공학부에서 분리되었습니다.
+8. **산업경영빅데이터공학과** - 산업융합시스템공학부에서 분리되었습니다.
+9. **소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)** - 창의소프트웨어공학부에서 분리되었습니다.
+10. **음악학과(클래식, 실용음악, 뉴미디어작곡)** - 음악학과로 명칭이 변경되었습니다.
+또한 2024년에는 신설된 학과가 몇 가지 있습니다:
+- 심리학과
+- 스마트항만물류학과
+- 창업투자경영학과
+위와 같은 변화들이 2024학년도 동의대학교에서 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 잘못 전달하고 있습니다. 응답에서는 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 실기 비중이 100%라고 주장하고 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 실기 비중이 70%라고 명시되어 있지만, 생성된 응답에서는 100%라고 언급하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제의 핵심을 흐리고 있습니다. 실기 비중에 대한 정보는 포함되어 있으나, 잘못된 수치로 인해 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 실기 비중에 대한 설명이 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 실기 비중에 대한 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 정보의 정확성이 떨어져 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6941170777830415</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 100%입니다. 
+레저스포츠학과와 태권도학과의 경우, 실기 비중이 70%이며, 수능 비중은 30%입니다.
+따라서, 일반적으로 가군 실기/실적 전형에서는 실기가 주요한 평가 요소로 작용합니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 라이프융합학부의 세부 전공이 아직 제공되지 않았다고 주장하지만, 원본 텍스트에서는 세부 전공이 명확히 나열되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 세부 전공을 명확히 제시하고 있지만, 생성된 응답은 그 정보가 없다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 다른 신설 학과에 대한 정보를 포함하고 있지만, 질문의 핵심인 라이프융합학부의 세부 전공에 대한 정보는 제공하지 않으므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히 라이프융합학부에 대한 정보가 부족하여 응답이 일관되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 라이프융합학부의 세부 전공에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절한 부분이 있으며, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.6446740046498669</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설되는 학과 중 라이프융합학부는 아직 구체적인 세부 전공 정보가 제공되지 않았습니다. 현재 제공된 정보만으로는 해당 학부의 세부 전공 구성이 명확하지 않습니다.
+현재 동의대학교에서는 2024년도에 신설되는 학과로 '심리학과'와 '스마트항만물류학과', '창업투자경영학과'가 있습니다. 하지만 라이프융합학부는 아직 신설되지 않았으며, 따라서 해당 학부의 세부 전공 구성에 대한 정보를 얻기 위해서는 동의대학교 입학처나 관련 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 최신 정보를 확인해야 합니다.
+추가적인 정보가 필요하시다면, 위 링크를 통해 동의대학교의 공식 웹사이트에서 최신 학과 구성 및 전공 세부사항을 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'라는 잘못된 정보를 포함하고 있으며, 원본 텍스트에 명시된 '체육학과'를 누락했습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. '태권도학과'는 원본에 포함되어 있지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하지만, 잘못된 학과를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성에 따라 점수가 영향을 받을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: '태권도학과'라는 정보는 원본 텍스트에 없으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로는 실기고사에 대한 정보를 제공하지만, 잘못된 학과를 포함하고 있어 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6377979101792763</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 가군에서 실기고사를 치러야 하는 학과는 **레저스포츠학과**와 **태권도학과**입니다. 
+- 레저스포츠학과: 2024년 1월 16일에 실기고사가 있습니다.
+- 태권도학과: 2024년 1월 16일에 실기고사가 있습니다.
+이 두 학과는 다른 학과들에 비해 추가로 실기고사를 치러야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과 목록을 잘못 제시하고 있습니다. 원본 텍스트에 명시된 학과들(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과) 외에 다른 학과들이 포함되어 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 학과 목록과 생성된 응답의 학과 목록이 서로 다릅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대의 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 원본 텍스트의 학과 목록과는 관련이 있지만, 추가된 정보가 많아 주제에서 벗어난 느낌이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 잘못된 정보를 포함하고 있습니다. 원본 텍스트에 명시된 학과 외에 다른 학과들이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 추가된 정보가 원본의 의미를 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6278496055502165</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '가군'과 '나군'에는 다음과 같은 학과들이 모집됩니다:
+1. **ICT융합공과대학**
+   - 컴퓨터공학과 (교직)
+   - 소프트웨어공학부 (컴퓨터소프트웨어공학, 응용소프트웨어공학)
+   - 인공지능학과
+   - 전기공학과 (교직)
+   - 전자공학과 (교직)
+   - 디지털콘텐츠학과
+   - 게임공학과
+2. **예술디자인체육대학**
+   - 음악학과 (교직, 클래식, 실용음악, 뉴미디어작곡)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 체육학과 (교직)
+   - 레저스포츠학과
+   - 태권도학과
+   - 경기지도학과 (신설)
+   - 패션디자인학과 (교직)
+이러한 학과들 중에서 지원하고자 하는 학과를 선택하여 지원하면 됩니다. 각 학과별로 모집 인원과 지원 자격 등에 대한 정보는 공고 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공 목록을 정확하게 나열하고 있으며, 신설된 학부라는 사실도 언급하고 있습니다. 그러나 "미래융합대학 내에 위치한 학부"라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, "미래융합대학 내에 위치한 학부"라는 정보는 원본에 없으므로 일관성이 떨어집니다. 이로 인해 응답이 원본과 완전히 일치하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 제공되는 전공에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "신설"이라는 단어가 문맥상 어색하게 사용되어 약간의 유창성 문제가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 관련된 설명이 잘 연결되어 있습니다. 그러나 "신설"이라는 단어의 사용이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하게 나열되어 있지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 혼란스러울 수 있어 완전한 명확성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8881061253312075</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공합니다.
+1. 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+이는 미래융합대학 내에 위치한 학부로서, 다양한 삶의 분야와 관련된 새로운 전공들을 개설하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 예술고와 체육고의 지원 불가능성에 대한 언급은 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 예술고와 체육고의 지원 불가능성에 대한 추가 정보가 포함되어 있어 원문과의 일관성이 떨어집니다. 원문에서는 농어촌학생전형에 대한 정보만 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 예술고와 체육고에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 예술고와 체육고의 지원 불가능성에 대한 정보는 원문에 포함되어 있지 않으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 정보가 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7286723554180233</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，可以申请동义大学的一般学生入学类型。
+특수목적고등학교 학생인 경우, 동의대학교에서 일반학생전형으로 지원이 가능합니다. 하지만 지원 자격에 대한 세부 사항은 고교유형별 지원자격 항목을 확인해보시는 것이 좋습니다. 특히, 특수목적고등학교 중 과학고, 국제고, 외국어고의 경우 지원이 가능하지만, 예술고와 체육고의 경우에는 지원이 불가능한 점을 유의하시기 바랍니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 언급했지만, 실제로는 32명을 모집한다고 명시되어 있습니다. 그러나 응답에서는 모집 인원에 대한 구체적인 수치가 잘못 제시되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과와 무역학과가 많은 인원을 모집한다고 하지만, 원문에서는 신소재공학과도 포함되어 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서 언급된 주요 학과에 대한 정보가 누락되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 학과를 나열하고 있지만, 각 학과의 모집 인원에 대한 정보가 명확하게 연결되지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답에서 제시된 모집 인원 수치가 원문과 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 원문과의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.7394192031001715</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 단순히 정원외 모집인원 수로 판단하면, 다음과 같은 학과들이 많은 인원을 모집하고 있습니다:
+1. **인문사회과학대학 - 중어중국학과 (교직)**: 최대선발 가능인원이 4명으로 가장 많습니다.
+2. **상경대학 - 무역학과 (교직)**: 최대선발 가능인원이 6명으로 두 번째로 많은 인원을 모집합니다.
+따라서, 가장 많이 모집하는 학과는 중어중국학과 (교직)와 무역학과 (교직)가 될 것으로 보입니다. 하지만 정확한 순위를 알기 위해서는 각 학과의 정원외 모집인원 수를 모두 확인해야 합니다.
+더 자세한 정보를 원하시면, 제공된 데이터를 바탕으로 전체적으로 검토해보시거나, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 웹사이트에서 최신 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 마이스터고를 제외한 모든 특수목적고 출신자는 지원할 수 없다는 점을 명확히 하지 않고, 지원 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특수목적고 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되어 있으나, 내용의 정확성 문제로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 크게 다르며, 원본 텍스트의 내용을 왜곡하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 의미적으로 부적절하며, 원본 텍스트의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6805563075541733</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 농어촌학생전형을 통해 지원할 수 있습니다. 관련 정보는 다음과 같습니다:
+- **모집군**: 나군
+- **전형명**: 학생부교과(농어촌학생전형)
+- **고교유형별 지원자격**:
+  - 일반고: 지원 가능
+  - 자율고: 지원 가능
+  - 특수목적고: 지원 가능 (과학고, 국제고, 외국어고는 지원 불가능)
+  - 특성화고: 지원 가능
+  - 영재학교: 지원 가능
+  - 기타: 지원 가능
+  - 검정고시: 지원 불가능
+  - 외국고: 지원 불가능
+따라서, 특수목적고등학교 중 예를 들어 과학고나 국제고는 지원이 불가능하지만, 일반특수목적고등학교 학생이라면 농어촌학생전형을 통해 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있습니다. 원본 텍스트와의 연결이 없기 때문에 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 제공되지 않은 정보를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없기 때문에 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 구체적인 성적 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6133653948224371</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균은 330.11입니다.
+- **영어 등급**: 평균은 3.30입니다.
+- **수능 4개 영역 등급**: 평균은 4.12입니다.
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균은 450.71입니다.
+이러한 정보를 바탕으로, 소프트웨어공학부의 합격자들은 비교적 높은 성적을 보여주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 전공의 경우의 성적 데이터만이 포함되어 있습니다"라는 부분은 원문에 명시되어 있지 않은 정보로, 다소 부정확한 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, "다른 전공의 경우의 성적 데이터만이 포함되어 있습니다"라는 추가 정보는 원문에 없는 내용으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 필요한 정보를 제공하기 위해 적절한 링크를 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 대한 정확성을 잘 반영하고 있지만, 추가된 정보가 정확하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, 추가된 정보가 원문과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 어색할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7340735882674706</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 전공의 경우의 성적 데이터만이 포함되어 있습니다. 
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 확인해보시거나, 동의대학교 입학관리팀에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정과 관련된 정보가 추가되어 있습니다. 원본 텍스트에는 등록금 납부와 관련된 세부사항이 포함되어 있지 않으므로, 일부 정보가 부정확하거나 과도하게 추가되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용이 원본과 일치하지 않거나 모순되는 부분이 있습니다. 예를 들어, 최초 합격자 등록 일정이 원본에 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 추가된 등록금 납부 및 등록 일정은 원본 텍스트의 주요 주제와는 약간의 차이가 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보가 논리적으로 연결되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 정확하게 반영하고 있지만, 추가된 정보가 원본에 포함되지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8146217646683425</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+- **최초 합격자 발표 및 등록금 납부**:
+  - **일정**: 2024년 2월 2일(금) 14:00
+  - **비고**: 
+    - *발표*: 홈페이지에서 개별 조회
+    - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+    - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+- **최초 합격자 등록**:
+  - **일정**: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+  - **비고**: 
+    - *발표*: 홈페이지에서 개별 조회
+    - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+    - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+- **충원 합격자 발표 및 등록**:
+  - **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+    - **비고**: 
+      - *발표*: 홈페이지에서 개별 조회
+      - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+      - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+  - **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00 ~ 16:00
+    - **비고**:
+      - *발표*: 홈페이지에서 개별 조회
+      - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+      - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+  - **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+    - **비고**:
+      - *발표*: 홈페이지에서 개별 조회
+      - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+      - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+  - **2차 충원 합격자 등록**: 2024년 2월 15일(목) 09:00 ~ 16:00
+    - **비고**:
+      - *발표*: 홈페이지에서 개별 조회
+      - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+      - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+  - **3차 이후 충원 합격자 발표**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+    - **비고**:
+      - *발표*: 홈페이지에서 개별 조회
+      - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+      - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+  - **3차 이후 충원 합격자 등록**: 개별 전화 통보 시 안내
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 면접고사 일정에 대한 잘못된 정보를 제공합니다. 원본 텍스트에서는 면접고사가 2024년 1월 20일(토)로 명시되어 있지만, 생성된 응답에서는 2024년 1월 17일(수)로 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 면접고사 일정이 다르게 제시되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 면접고사와 관련된 내용을 다루고 있지만, 잘못된 날짜를 제공하고 있어 원본 텍스트의 핵심 정보를 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 흐름을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 면접고사와 관련된 내용을 다루고 있지만, 잘못된 날짜로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3352205790607146</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사를 보실 예정입니다. 이 날짜가 면접고사의 일정이므로, 그날에 맞춰 대기실 및 입실 시간을 확인하시고 학교로 가시면 됩니다. 자세한 내용은 "비고" 항목에서 제공된 정보를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 최저학력 기준이 없다는 사실을 언급하고 있으며, 추가적인 관련 정보를 제공하고 있습니다. 그러나 "2024학년도 한의예과의 최저학력기준 정보가 제공된 데이터 내에서는 명시되어 있지 않습니다."라는 문장은 다소 모호하게 느껴질 수 있습니다. 최저학력 기준이 아예 없다는 점을 명확히 하고 있지 않기 때문에 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, "2024학년도 한의예과의 최저학력기준 정보가 제공된 데이터 내에서는 명시되어 있지 않습니다."라는 문장은 원본의 내용을 약간 왜곡하는 느낌을 줍니다. 따라서 일관성 점수는 3점으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 추가적인 데이터도 포함되어 있어 매우 관련성이 높습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 모호함이 있어 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 최저학력 기준이 없다는 점을 명확히 하지 않아 약간의 부정확성이 있습니다. 따라서 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 모호함이 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 약간의 모호함이 있어 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡하게 느껴질 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.4930822774997786</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도 한의예과의 최저학력기준 정보가 제공된 데이터 내에서는 명시되어 있지 않습니다. 
+데이터에서 확인 가능한 한의예과 관련 정보는 다음과 같습니다:
+- 모집 인원: 11명
+- 지원 인원: 24명
+- 경쟁률: 2.17
+최저학력기준에 대한 정보가 포함되지 않았습니다. 더 자세한 최저학력기준을 확인하려면, 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 언급하고 있지만, 추가적인 정보가 포함되어 있어 원문과의 일치성이 약간 떨어진다. 그러나 기본적인 사실은 정확하게 반영하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준이 없다는 점을 언급하고 있지만, 추가적인 정보가 포함되어 있어 원문과의 일관성이 떨어진다. 특히, 수능 최저학력 기준이 대학교마다 다르다는 설명은 원문과 직접적인 관련이 없다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 동의대학교의 수능 최저학력 기준에 대한 정보를 잘 다루고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있다. 다만, 약간의 어색한 표현이 있을 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달된다. 그러나 일부 추가 정보가 원문과의 연결성을 약간 약화시킨다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있지만, 추가적인 정보가 포함되어 있어 정확성에 약간의 영향을 미친다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있다. 그러나 일관성과 정확성에서 약간의 개선이 필요하다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞는다. 그러나 일부 추가 정보가 원문과의 의미적 일치를 약간 떨어뜨린다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었다. 그러나 일부 문장이 다소 복잡할 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5318435775164427</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교에서 정시 전형으로 지원할 때 수능 최저학력 기준에 대한 내용이 포함되어 있지 않습니다. 
+수능 최저학력 기준은 대학교마다 다르며, 해당 학교와 전공별로 정해져 있습니다. 위에서 제공된 정보는 주로 장학대상자 선발, 학생증 발급, 입학전 강좌 안내, 통계 작성, 교내 유인물 발송 등에 대한 개인정보 이용 목적과 항목들입니다.
+따라서 정시 전형으로 지원할 때 수능 최저학력 기준이 있는지 확인하려면 동의대학교의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 충원합격자 발표 일정은 정확하게 반영하고 있지만, 1차 등록 시간과 이후 발표 및 등록에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 일부 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, 추가적인 등록 정보와 이후 발표에 대한 언급이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있지만, 추가적인 정보가 포함되어 있어 약간의 주제에서 벗어난 느낌이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 약간의 의미 변형이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.9026530082082274</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+- **충원 합격자 1차 발표**: 2024년 2월 14일 (수) 09:00
+- **충원 합격자 1차 등록**: 2024년 2월 14일 (수) 09:00~16:00
+이후에도 추가로 충원 합격자를 발표하고 등록을 진행할 예정입니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 완전히 무시하고 있으며, 실제 발표 일정이 명시된 원본 텍스트와는 전혀 관련이 없습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하며, 발표 일정에 대한 정보를 제공하지 않기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 추가합격자 발표일자에 대한 정보가 없다고 언급하고 있습니다. 이는 원본 텍스트의 핵심 내용을 다루지 않기 때문에 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 발표 일정에 대한 정보가 없다는 점에서 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 발표 일정에 대한 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4523825142521375</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에서는 추가합격자 발표일자가 명시되어 있지 않습니다. 추가합격자 발표일자는 공고에서 따로 발표될 예정입니다. 더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보를 제공하지 않으며, 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본 텍스트는 추가 모집이 이루어진다는 내용을 포함하고 있지만, 생성된 응답은 그에 대한 언급이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본의 내용을 부정하는 정보가 포함되어 있습니다. 원본 텍스트는 추가 모집이 있을 것이라고 명시하고 있지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 핵심 정보를 놓치고 있습니다. 추가 모집에 대한 질문에 대한 답변으로는 적절하지 않으며, 원본의 주요 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보를 누락하고 있습니다. 원본의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.450106966521626</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 추가 모집에 대한 내용이 없습니다. 각 전형별 모집인원과 지원 자격 등에 대해 자세히 알고 싶으시다면, 더 많은 정보를 필요로 하는 것 같습니다. "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자를 대상으로 한 입학 전형에 대한 내용을 포함하고 있습니다. 지원 자격과 재직 기간에 대한 정보는 원본 텍스트와 일치하지 않으며, 전형 요소 반영 비율은 맞지만 다른 세부 사항이 잘못되었습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 지원 자격과 관련된 정보가 상충합니다. 원본 텍스트는 고교 졸업(예정)자 또는 동등학력 소지자에 대한 내용을 포함하고 있지만, 생성된 응답은 성인 학습자와 관련된 내용을 다루고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 원본 텍스트와 관련이 적고, 주제에서 벗어난 부분이 많습니다. 그러나 전형 요소 반영 비율과 제출 서류에 대한 언급은 관련성이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 특히 지원 자격과 관련된 정보가 원본 텍스트와 다르기 때문에 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 지원 자격과 관련된 정보가 잘못되어 있으며, 전형의 목적에 대한 설명도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 많은 문제를 가지고 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 원본 텍스트와 다르기 때문에 의미적으로 적절하지 않습니다. 그러나 일부 요소는 여전히 관련성이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 일관성이 부족하여 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.5918882601671827</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 근로기준법에 따른 사업체 등
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상 필요
+2. 전형 요소 반영 비율:
+   - 서류: 70%
+   - 면접: 30%
+3. 제출 서류:
+   - 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자 등에 따라 다르게 요구
+4. 서류 평가 영역 및 배점:
+   - 공동체역량: 140~98점
+   - 학업역량: 280~196점
+   - 전공적합성: 280~196점
+5. 면접 평가 영역 및 배점:
+   - 학업역량: 문제해결능력, 180~126점
+   - 전공적합성: 진로정보 탐색능력, 120~84점
+이러한 요소들을 종합적으로 평가하여 입학자를 선발합니다. 자세한 내용은 공식 웹사이트를 참조하시기 바랍니다 (https://ipsi. deu. ac. kr/main. do).</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 추가 정보를 포함하고 있지만, 원본 텍스트에 명시된 자격 요건 외에 다른 조건들을 추가하여 사실과 다르게 표현하고 있습니다. 원본 텍스트에는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자만 언급되어 있으며, 나머지 조건들은 원본에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 여러 조건을 추가하여 일관성이 떨어집니다. 원본 텍스트의 내용과는 다른 정보가 포함되어 있어, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하고 있으나, 원본 텍스트에 포함되지 않은 추가적인 조건들이 포함되어 있어 약간의 관련성 저하가 있습니다. 그러나 주제는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 조건을 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 각 조건이 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 추가적인 조건을 포함하고 있어 정확성이 떨어집니다. 원본 텍스트의 정보만으로는 지원자격을 판단할 수 없습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 주제와 관련된 내용을 담고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 추가된 정보로 인해 혼란스러울 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.7354886198976588</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024년도에 평생학습자전형 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+2. 만 30세 이상인 자 (성인학습자(정원내·외)전형의 경우)
+3. 특별히 국가나 지방자치단체, 공공기관에서 발급하는 공적증명서를 통해 인정받을 수 있는 1차 산업 종사자
+4. 군 의무복무 경력자 (재직자전형의 경우)
+이러한 자격 요건을 충족하면 평생학습자전형 지원이 가능합니다. 자세한 내용은 해당 대학 입학처 웹사이트를 참조하시거나, 직접 문의해보시는 것이 좋습니다. [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 일반적인 정보만을 언급하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하지만, 생성된 응답은 그러한 정보를 무시하고 일반적인 설명을 하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 핵심 질문인 대기실 및 입실시간에 대한 정보와는 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 중요한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 정보를 제대로 전달하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3830476945512598</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 특정 고교 유형별 지원 자격에 대한 내용만 기재되어 있어, 실기고사와 관련된 구체적인 장소는 언급되지 않았습니다. 일반적으로 실기고사는 해당 고등학교에서 치러지며, 학교마다 다른 시설을 사용할 수 있습니다.
+더 정확한 답변을 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보와 구체적인 안내를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보와 관련이 없으며, 태권도학과의 실기종목에 대한 내용으로 전혀 다른 주제를 다루고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있어 일관성이 없습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3389196354749288</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 태권도학과의 실기종목 중 하나로 진행됩니다. 선택할 수 있는 종목은 "품새", "시범", 또는 "겨루기" 중에서 한 가지를 선택해야 합니다.
+- **품새**는 앞차기, 돌려차기, 옆차기를 2회씩 실시하는 것을 포함합니다.
+- **시범**은 뛰어 앞차기, 뛰어 옆차기, 뛰어 돌개차기를 실시하며, 자유시연(1분 이내)도 포함됩니다.
+- **겨루기**는 발차기와 후리기 등을 연결하여 연속적으로 실시하는 것을 포함합니다.
+실기고사에서는 각 종목별로 배점이 다르므로 선택할 때 배점을 고려해야 합니다. 또한, 필요 물품과 도복을 지참하고 태권도화를 착용하지 않는 것이 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 사실을 잘못 전달하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않으며, 3차 이후에만 개별 전화 통보가 이루어진다고 명시하고 있습니다. 그러나 생성된 응답은 전화 통보가 이루어질 것이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 이루어질 것이라고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 전체적인 관련성이 약간 떨어집니다. 그러나 주제는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해져서 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실이 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수를 낮추는 요인입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되었습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.7100354950213397</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원합격자 발표 후에는 3차 이후의 합격자를 통보하는 경우 개별 전화 통보를 진행합니다. 이에 대한 일정은 다음과 같습니다:
+- **2024년 2월 15일(목) 19:00~ 2024년 2월 20일(화) 18시까지**: 충원 합격자 3차 이후의 합격자를 통보합니다. 이 시점에서 합격 여부를 확인하려면 홈페이지에서 개별 조회하거나 입학관리팀에서 고지서를 수령해야 합니다.
+따라서, 충원합격자 발표 후에는 전화로 통보가 이루어질 것으로 예상됩니다. 하지만 정확한 일정과 방법은 학교의 공식 안내에 따르는 것이 좋습니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "2024학년도 모집 관련 정보만 포함되어 있습니다"라는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 2024학년도 모집 관련 정보에 대한 언급은 원문에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청된 정보와 관련이 있으며, 수시모집 결과에 대한 정보를 찾는 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2024학년도에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 대한 정확성을 잘 반영하고 있지만, 2024학년도에 대한 언급은 사실과 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 2024학년도에 대한 언급이 원문과의 맥락에서 벗어나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8848707228570327</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 데이터 내에는 없습니다. 2024학년도 모집 관련 정보만 포함되어 있습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 확인해 보실 것을 권장드립니다. 해당 사이트에서는 최신 정보와 자세한 데이터를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 수능 응시가 필요하지 않은 전형에 대한 설명이 포함되어 있지만, 이는 정시모집에 대한 질문에 대한 정확한 답변이 아닙니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 모순되는 정보를 제공합니다. 원문은 정시모집 지원자는 수능에 응시해야 한다고 명시하고 있지만, 생성된 응답은 수능 응시 없이도 지원할 수 있는 전형이 있다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 응시와 관련된 다양한 전형에 대한 정보를 제공하지만, 질문의 핵심인 정시모집 지원 조건에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 논리적 연결이 부족하여 일관성이 떨어집니다. 정보가 분산되어 있어 주제의 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다릅니다. 정시모집 지원자는 수능에 응시해야 한다는 사실을 무시하고, 수능 없이 지원할 수 있는 전형에 대한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 수능 응시와 관련된 다른 전형에 대한 정보를 제공하지만, 질문의 맥락과는 맞지 않는 내용이 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5334848414319633</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도에는 수능 응시를 하지 않더라도 다양한 전형을 통해 지원이 가능합니다. 예를 들어, 실기/실적 위주전형인 '경기실적우수자전형'에서는 수능 응시가 필요하지 않습니다.
+또한, 학생부종합전형에서도 수능 응시가 아닌 다른 자격을 통해 지원이 가능합니다. 예를 들어, '학생부종합(평생학습자전형)'은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자에게 개방되어 있습니다.
+따라서, 정시모집에서 수능 응시가 필요하지 않은 전형들이 있으므로, 자격을 확인하시고 지원 가능성을 확인해보세요. 더 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. "6년 과정 또는 12년 과정을 이수하지 않은 경우, 정시로 지원할 수 없습니다."라는 주장은 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 정시 지원이 불가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 주제와의 관련성이 낮습니다. 원문에서 다루는 정시 지원 가능성에 대한 질문에 대한 답변이 아닌, 잘못된 조건을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 흐름을 보입니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 정시 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 관계에서 전반적으로 부정확한 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문의 맥락을 무시하고 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다. 원문과의 관계에서 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5170701805687319</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>6년 과정 또는 12년 과정을 이수하지 않은 경우, 정시로 지원할 수 없습니다. 농어촌 학생전형은 특정 조건을 충족해야 하며, 고등학교 졸업 후 10년이 지났다면 해당 전형에 지원하는 것은 불가능합니다.
+만약 평생학습자 또는 성인학습자로 분류될 수 있는 경우라면, 미래융합대학의 학생부종합전형을 통해 지원할 수 있습니다. 그러나 이는 특정 조건을 충족해야 하며, 지원 가능 여부는 해당 전형의 자격 요건에 따라 결정됩니다.
+자세한 내용은 입학안내 홈페이지를 참조하거나 https://ipsi. deu. ac. kr/main. do 링크에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8235841308663063</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 내용: 원서 접수는 인터넷을 통해 진행하며, http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com에서 접수 가능
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 내용: 서류 제출 대상은 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나, 우편으로 발송 가능
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과와 태권도학과의 경우
+   - 날짜: 2024년 1월 16일 (화)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 확인 가능
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과, 체육학과의 경우
+   - 날짜: 2024년 1월 17일 (수)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 확인 가능
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 2024년 2월 14일 (수) 9시
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 발표 및 등록: 2024년 2월 15일 (목) 9시
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+이상이 동의대학교 정시 모집 일정입니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.9006574269690016</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 내용: 원서 접수는 인터넷을 통해 진행하며, http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com에서 접수 가능
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 내용: 서류 제출 대상은 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나, 우편으로 발송 가능
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과와 태권도학과의 경우
+   - 날짜: 2024년 1월 16일 (화)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 확인 가능
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과, 체육학과의 경우
+   - 날짜: 2024년 1월 17일 (수)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 확인 가능
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+7. **합격자 발표 및 등록금 납부 (2차)**
+   - 날짜: 2024년 2월 14일 (수) 09시 ~ 16시
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+8. **합격자 발표 및 등록금 납부 (3차)**
+   - 날짜: 2024년 2월 15일 (목) 09시 ~ 16시
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+9. **합격자 발표 및 등록금 납부 (4차)**
+   - 날짜: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+이상이 동의대학교 정시 모집 일정입니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장합니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 미응시자에 대한 전형을 언급하고 있지만, 원문에서 명시된 수능 성적 요구 사항과는 관련이 없습니다. 따라서 주제와 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형을 나열하고 있지만, 원문과의 불일치로 인해 논리적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 수능 미응시자가 지원할 수 없다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6250833152232438</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 "학생부종합(조기취업형계약학과전형)"입니다. 이 전형에서는 학생부 교과 성적, 공동체역량, 학업역량, 전공적합성 등을 평가합니다.
+또한, 수능 미응시자도 지원 가능한 다른 전형들이 있습니다:
+1. **학생부종합(평생학습자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+2. **학생부종합(성인학습자(정원내)전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+이러한 전형들은 수능 미응시자도 지원 가능하며, 각 전형별로 평가 기준과 지원 자격이 다릅니다. 자세한 내용은 동의대학교 입학처 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격이 36명까지 이루어졌다는 사실을 무시하고, 2024년도에 대한 잘못된 정보를 제공하고 있습니다. 또한, 충원 합격 차수에 대한 정보가 없다는 원문과 상충하는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 포함하고 있으며, 충원 합격 차수에 대한 정보가 없다는 원문의 내용을 완전히 무시하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있지만, 원문에서 요구하는 정보와는 관련이 없습니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 부분이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 전년도 충원 합격 인원에 대한 정보와 충원 합격 차수에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5423052817175785</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024년도 전자공학과의 충원 합격은 3차까지 이루어졌습니다. 첫 번째 충원 합격은 2024년 2월 15일에 발표되었고, 두 번째 충원 합격 역시 같은 날에 등록이 가능했습니다. 세 번째 충원 합격은 2024년 2월 15일부터 16시까지 개별 전화 통보를 통해 이루어졌습니다.
+따라서, 정확한 답변은 3차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 전화번호가 없다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 제공하지 않고 웹사이트를 방문하라는 제안은 원본의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 일치하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있으며, 전화번호가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6837801038595789</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 찾기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보시는 것을 추천드립니다. 해당 페이지에서 입학처 연락처 정보를 확인하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시되어 있지만, 생성된 응답에서는 해당 합격자가 다음 단계로 넘어가지 않고 다시 재검토된다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 전화 통화가 되지 않을 경우의 처리 방식을 명확히 설명하고 있지만, 생성된 응답은 다른 절차를 제시하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 내용과는 다소 벗어나 있습니다. 전화 통화가 되지 않는 경우에 대한 정보는 포함되어 있으나, 추가적인 정보가 많아 원본의 핵심 내용을 흐리고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 중복되어 있어 더 간결하게 표현될 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 중복된 내용이 있어 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전화 통화가 되지 않는 경우의 처리 방식에 대한 잘못된 설명이 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 중복된 내용으로 인해 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5253651942803863</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 다음 단계로 넘어가지 않고 다시 재검토됩니다. 일반적으로는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있으며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재되어 있습니다.
+만약 전화 통화가 되지 않는 경우, 해당 합격자는 다음 단계로 넘어가지 않고 다시 재검토됩니다. 자세한 절차와 처리 방법은 입학관리팀에서 안내받으시는 것이 좋습니다. 필요하다면 입학관리팀에 문의하시거나, 공식 홈페이지를 통해 확인하시기 바랍니다. https://ipsi. deu. ac. kr/main. do 링크를 참고하여 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정보가 잘못되었거나 누락된 부분이 많습니다. 예를 들어, 6년 과정과 12년 과정에 대한 구체적인 서류 목록이 포함되어 있지 않으며, 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자에 대한 서류만 나열되어 있습니다. 이는 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 요구하는 서류 목록과 제출 조건이 다르게 제시되어 있으며, 특히 6년 과정과 12년 과정에 대한 정보가 누락되어 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 농어촌학생전형에 대한 서류 제출에 관한 질문에 어느 정도 관련이 있지만, 원본 텍스트의 주요 내용을 충분히 다루지 못하고 있습니다. 특정 서류에 대한 정보는 포함되어 있으나, 전체적인 맥락에서 부족함이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장 구조가 복잡하여 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 항목으로 나누어져 있지만, 각 항목 간의 연결이 부족하여 전체적으로 일관된 흐름이 떨어집니다. 정보가 나열되어 있지만, 논리적인 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 필요한 서류 목록이 잘못되거나 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족함이 많아 다차원적인 품질이 낮습니다. 일부는 적절하지만, 전체적으로는 원본 텍스트와의 차이가 큽니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 복잡한 문장 구조로 인해 혼란스러울 수 있습니다. 그러나 전반적으로는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.6916657238171255</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌 학생 전형으로 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. **고교 졸업(예정)자**
+   - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+2. **검정고시 출신자**
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+3. **외국고교 졸업(예정)자**
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+     - 모든 서류는 원본 제출을 원칙으로 합니다. 단, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다.
+4. **추가 요구사항**
+   - 농어촌 학생 전형에 대한 추가 내용 참조 필요 (현재 제공된 정보에서는 "추가내용 참조"로 표기되어 있어 자세한 내용은 확인 필요)
+위 서류들은 기본적인 것으로, 실제 지원 시에는 본교 입학관리팀의 안내를 따르는 것이 좋습니다. 또한, 서류 제출 기간과 방법 등에 대한 자세한 정보는 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 특정 서류(예: 주민등록초본, 초등학교 및 중학교 학교생활기록부 등)가 누락되어 있습니다. 또한, 고교 졸업(예정)자에 대한 정보가 추가되었으나, 원본 텍스트의 요구 사항과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 포함하고 있지만, 추가된 정보와 원본 텍스트의 요구 사항 간에 일관성이 부족합니다. 특히, 고교 졸업(예정)자와 검정고시 출신자에 대한 서류가 추가되었으나, 원본 텍스트의 요구 사항과 충돌하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 원본 텍스트에서 요구하는 서류가 누락되어 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에서 요구하는 서류와의 불일치로 인해 정확성 점수가 낮아졌습니다. 특히, 특정 서류의 누락이 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.7892256538834861</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정에서 농어촌 학생 전형으로 지원 시 제출해야 할 주요 서류들은 다음과 같습니다:
+- **고교 졸업(예정)자**:
+  - 고교 학교생활기록부 1부
+  - 학생부 온라인 제공 동의가 있는 경우 제출할 필요 없음 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+- **검정고시 출신자**:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의가 있는 경우 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출 여부 선택 가능)
+- **외국고교 졸업(예정)자**:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류 (제출 여부 선택 가능)
+  - 모든 서류는 원본 제출을 원칙으로 합니다. 단, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다.
+위와 같은 서류들을 준비하여 제출해야 합니다. 특히 외국고교 졸업(예정)자인 경우에는 아포스티유 확인서 또는 영사확인을 발급받아 함께 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 저소득 가정 학생의 선발 정책에 대한 언급이 있습니다. 이는 원문과 일치하지 않으므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 기회균등 전형에 대한 언급이 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 저소득 가정 학생의 선발 정책에 대한 정보를 제공하고 있지만, 원문에서 다루고 있는 주제와는 다소 벗어나 있습니다. 따라서 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 중국어로 되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 원문과의 일치성이 부족하고, 정보의 정확성도 떨어지므로 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족하며, 주제와 관련이 적은 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉬운 편입니다. 그러나 언어가 한국어가 아닌 점은 감안해야 합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.4102462496068354</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于普通高考招生中的低收入机会均等类型的选拔。根据给出的信息，似乎主要关注的是针对特定学科和专业的特殊类型招生，如体育特长生、学生综合素质评价招生等，并没有直接提及低收入家庭的学生选拔政策。
+如果您想了解有关低收入家庭学生的招生政策，请访问以下网站以获取更多信息：https://ipsi. deu. ac. kr/main. do
+该网站可能包含关于针对经济困难学生的特殊招生计划的信息。</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 "2.5등급은 절사되지 않고 그대로 반영됩니다."라고 주장하지만, 원본 텍스트에서는 수능 최저등급의 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 이 주장은 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 하였으나, 생성된 응답은 절사되지 않는다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보인 절사 여부에 대한 불확실성을 간과하고 있습니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 정보를 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 하였으나, 생성된 응답은 이를 반박하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 무시한 주장을 포함하고 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.633003456613022</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되지 않고 그대로 반영됩니다. 수능 최저등급에서 사탐 2과목 평균산출을 할 때 등급이 소수점까지 반영되므로 2.5등급은 2.5로 처리됩니다.
+만약 특정 모집단위의 수능 전형성적 산출방법에 따라 절사가 적용되는 경우는 해당 모집단위의 공지사항이나 안내를 확인해보시기 바랍니다. 위 정보에서는 소수점까지 반영한다고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에 따르면 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 진행된다고 명시되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 4차 발표가 있다고 언급했지만, 원본 텍스트에서는 3차까지의 발표만 언급되고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 발표 일정에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "총 4차로 이루어집니다."라는 문장이 원본 텍스트와의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 4차 발표에 대한 언급이 원본 텍스트와 충돌하여 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 4차 발표가 있다고 잘못 언급하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보로 인해 원본 텍스트의 의미와 일치하지 않는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.823429158451997</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1차 발표는 2024년 2월 14일(수)에 있습니다.
+2차 발표는 같은 날인 2024년 2월 15일(목)에 있습니다.
+3차 이후의 발표는 2024년 2월 15일(목) 부터 2024년 2월 20일(화)까지 개별 전화 통보를 통해 이루어집니다.
+따라서 총 4차로 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 점과 추가 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 구체적인 평균 점수와 비교하는 내용이 부족하여 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 다군 수능(일반학생전형)에 대한 정보가 추가되어 있어 일관성이 떨어지는 부분이 있습니다. 원본 텍스트의 특정 세부사항이 반영되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 구체적인 평균 점수와 비교하는 내용이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽지만, 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어지는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 세부사항을 충분히 반영하지 못하여 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 원본 텍스트의 특정 세부사항이 누락되어 있어 의미의 적절성이 약간 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하게 구성되어 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5982675208945191</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도 다군 수능(일반학생전형)의 경우, 수능 반영 영역 및 가산점에 대한 정보를 확인해보겠습니다.
+인문사회과학대학 경영정보학과와 상경대학 e비즈니스학과는 모두 수능 성적이 100% 반영됩니다. 따라서 수능 점수만으로도 합격 가능성이 있습니다. 하지만 정확한 추가합격 여부는 모집단위별 평균점수, 경쟁률 등을 고려해야 합니다.
+다군 수능(일반학생전형)의 경우, 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수가 동점자 처리 기준 중 하나입니다. 따라서 수능 성적이 4.6이면, 해당 모집단위의 평균점수와 경쟁률을 고려하여 추가합격 가능성 여부를 판단해야 합니다.
+만약 특정 모집단위의 평균점수가 4.6보다 낮다면, 추가 합격 가능성이 높아지며, 반대로 평균점수가 높다면 추가 합격 가능성은 낮아질 수 있습니다. 따라서 정확한 정보를 얻기 위해서는 해당 모집단위의 최신 공시 자료를 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 입학사정관제와 전형 요소 반영 비율에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 구체적인 내용은 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전형 요소 반영 비율에 대한 정보는 원본 텍스트에서 다루지 않은 부분입니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 입학사정관제와 관련된 정보를 제공하여 주제와 관련이 있지만, 원본 텍스트의 핵심 내용인 정시 등급과 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 합격 가능성에 대한 구체적인 수치를 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 맥락과는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.677277082907613</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 입학사정관제는 전형요소 반영 비율을 확인해야 합니다. 현재 제공된 정보로는 e비즈니스학과에 대한 구체적인 전형요소 반영 비율이 명시되어 있지 않습니다.
+2024년 동의대학교의 전형 요소 반영 비율은 다음과 같은 방식으로 구성될 수 있습니다:
+- 학생부 교과: 18% ~ 60%
+- 출결: 12% ~ 18%
+- 서류: 70% ~ 30%
+정시 등급 5.3은 상당히 좋은 성적입니다. 그러나 e비즈니스학과의 경우, 학생부 교과와 서류가 주요 평가 요소로 작용할 가능성이 높습니다.
+따라서 정시 등급 5.3으로 e비즈니스학과에 최초 합격 가능성은 있습니다만, 확실한 답변을 위해서는 동의대학교 e비즈니스학과의 정확한 전형요소 반영 비율을 확인해야 합니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 해당 학과의 최신 입학사정관제 안내를 확인하시거나, 동의대학교 입학처에 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 여부를 판단하기 어렵다고 언급하고 있으며, 경쟁률, 성적 평균 등을 고려해야 한다고 제안합니다. 그러나 원본 텍스트에서 명시된 예비 38번의 경우 예비 합격 가능성이 낮다는 구체적인 사실을 간과하고 있습니다. 따라서 일부 사실은 반영되었으나, 원본의 핵심 정보를 충분히 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 예비 38번의 경우 예비 합격 가능성이 낮다는 점과 상충하는 내용을 포함하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비합격 여부에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 경쟁률과 성적 평균을 고려해야 한다고 언급합니다. 그러나 원본 텍스트의 구체적인 상황을 충분히 반영하지 못해 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 구체적인 사실을 충분히 반영하지 못했습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 반영되었으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 예비합격 여부에 대한 질문에 대한 적절한 맥락을 제공합니다. 그러나 원본 텍스트의 구체적인 사실과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡할 수 있어 약간의 이해도를 떨어뜨릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5359251673806965</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 학생의 예비합격 여부를 정확히 판단하기 어렵습니다. 이정도 성적이나 경쟁률, 모집인원 등을 고려해야 합니다.
+1. **경쟁률과 지원 인원**: 각 전공별 지원 인원과 경쟁률을 확인해보세요.
+2. **성적 평균**: 제공된 데이터에서 해당 전공의 평균 점수를 찾아보세요.
+3. **개인 정보**: 성명, 학과, 수험번호, 전화번호, 휴대전화번호, 추가연락처, 성적 등이 필요합니다.
+만약 이정도 성적이 평균 이상이고 경쟁률이 낮다면 예비합격 가능성은 있습니다. 하지만 정확한 판단을 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 합격 가능성에 대한 정보를 제공하고 있으며, 3.44라는 성적이 합격하기 어려울 수 있다는 점을 언급하고 있습니다. 그러나 "일반적으로 합격을 위해서는 3.5 이상의 성적을 보유하고 있어야 한다"는 부분은 다소 주관적이며, 명확한 근거가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "3.5 이상의 성적을 보유하고 있어야 한다"는 주장은 원본 텍스트에서 명시된 평균 성적보다 약간 높은 기준을 제시하고 있어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장은 더 명확하게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "3.5 이상의 성적"이라는 주장은 다소 주관적이며, 원본 텍스트의 평균 성적과는 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 주관적인 표현이 있어 다소 낮은 점수를 부여했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 더 간결하게 표현될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6369463894992607</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 합격할 확률은 상당히 낮습니다. 동의대학교 간호학과는 비교적 높은 학업성적 요구를 가지고 있으며, 일반적으로 합격을 위해서는 3.5 이상의 성적을 보유하고 있어야 합니다.
+그러나 이는 단순한 예측일 뿐 실제 합격 가능성은 여러 요인에 따라 달라질 수 있습니다. 예를 들어, 진로 선택과목 성적이 좋았거나, 면접에서 좋은 인상을 주었다면 합격 가능성도 조금 더 높아질 수 있습니다.
+따라서, 정확한 합격 가능성을 확인하려면 동의대학교 간호학과의 최신 모집요강을 참조하거나, 대학 입학처에 직접 문의하는 것이 가장 좋습니다. 또한, 다른 대학이나 전공을 고려해보는 것도 좋은 방법일 수 있습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성을 판단하기 위해 추가 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 정보(정시 등급 2.52가 평균 등급보다 높다는 점)를 반영하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 합격 가능성에 대한 판단을 회피하는 방식으로 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 이를 부정하는 듯한 인상을 줍니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 추가 정보 요청은 적절하지만, 원본의 주제를 완전히 다루지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 합격 가능성에 대한 명확한 판단을 회피하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본의 맥락을 완전히 반영하지는 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6411215237337927</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 간호학과의 최종 합격 가능성을 정확히 판단하기 어렵습니다. 간호학과의 경우 수능 점수와 영어 등급 외에도 다른 요소들이 합격 결정에 영향을 미칠 수 있습니다.
+특정 대학과 전형의 최종 합격 가능성을 확인하려면, 다음과 같은 정보가 필요합니다:
+1. 동의대학교 간호학과의 정시 모집 전형에서 요구하는 수능 점수와 영어 등급.
+2. 해당 전형에서 고려되는 다른 평가 요소들 (예: 학생부 교과 성적, 진로선택 과목 성적 등).
+3. 2024년 동의대학교 간호학과의 모집 규칙 및 기준.
+위와 같은 정보를 확인한 후에, 제공된 정시 성적이 최종 합격 가능성에 미치는 영향을 판단할 수 있습니다. 만약 이러한 정보가 필요하다면, 대학 입학처 웹사이트 (https://ipsi. deu. ac. kr/main. do) 또는 전화로 문의하시는 것이 좋습니다.
+또한, 동일한 학교와 전형에 대한 이전 논문이나 통계를 참고하여 더 정확한 판단을 내릴 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 정확하게 반영하고 있으며, 3.7의 GPA로 합격 가능성이 낮다는 점을 언급하고 있습니다. 그러나 "보통 높은 성적을 요구합니다"라는 표현은 다소 주관적일 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 평균 성적과 관련된 내용을 잘 반영하고 있습니다. 다만, "최종 합격 여부는 여러 요소가 결합되어 결정된다"는 부분은 원본 텍스트에서 명시되지 않은 추가적인 정보입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장에서 반복적인 표현이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 다만, 일부 문장이 중복되어 나타나면서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.7의 GPA로 합격 가능성이 낮다는 점을 정확하게 전달하고 있습니다. 그러나 "보통 높은 성적을 요구합니다"라는 표현은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 중복된 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6704122019015639</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 GPA로 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 간호학과의 경우 보통 높은 성적을 요구합니다. 하지만 최종 합격 여부는 여러 요소가 결합되어 결정되므로, 정확한 답변을 위해서는 해당 대학의 정시 모집 기준을 확인해야 합니다.
+대략적으로 보면, 3.7의 GPA로 간호학과에 정시로 합격하기 어렵다고 판단할 수 있습니다. 하지만 최종적인 합격 여부는 각 대학에서 설정한 성적 기준 및 기타 평가 요소들(면접 등)을 고려하여 결정됩니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 관계 부서에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 성적 기준과 관련된 정보를 제공하고 있으며, 정시 성적 2.58이 합격 가능성에 미치는 영향을 설명하고 있습니다. 그러나 일부 세부사항은 원본 텍스트와 일치하지 않거나 추가적인 정보가 포함되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 실기 성적의 중요성에 대한 강조가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 정시 성적에 대한 합격 가능성을 강조하고 있지만, 생성된 응답은 실기 성적에 더 많은 비중을 두고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 간호학과의 정시 모집에 대한 구체적인 내용을 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 다소 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 실기 성적 기준에 대한 정보가 추가되어 있어 약간의 부정확성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 다만, 일부 추가 정보가 원본의 맥락과 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6749969248610637</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집 정보를 확인해보겠습니다.
+간호학과는 2024년도에도 간호교육인증을 받은 단위로 모집되고 있습니다. 학생부교과와 실기/실적 위주 전형으로 모집되며, 각 전형의 지원 자격과 성적 기준을 확인해보겠습니다.
+1. **학생부교과(농어촌학생전형)**:
+   - 2024년도에는 학생부교과로 모집이 진행되지 않습니다.
+2. **실기/실적 위주 전형**:
+   - 실기/실적 위주의 전형에서는 간호학과의 경우, 학생부 교과 성적이 반영되는 부분이 있습니다.
+   - 2024년도 동의대학교 간호학과의 학생부교과 성적 반영 방식은 다음과 같습니다:
+     - 반영과목: 전 모집단위(한의예과 제외) 12과목
+     - 반영방법: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+3. **성적 기준**:
+   - 정시 성적이 2.58이라면, 이는 학생부교과 성적 반영에 큰 도움이 될 수 있습니다.
+   - 그러나 간호학과의 경우, 실기/실적 위주의 전형에서는 주로 실기 성적이 중요하게 작용합니다.
+4. **실기 성적 기준**:
+   - 2023년도와 2024년도 동의대학교 간호학과의 실기 성적 기준을 확인해보겠습니다.
+     - 제자리 멀리뛰기: 남 256～259 cm, 여 206~209 cm
+     - Z-런: 남 15.40∼15.59 s, 여 16.30~16.49 s
+   - 성적 기준을 보면, 제자리 멀리뛰기와 Z-런의 성적이 중요합니다.
+따라서 정시 성적이 2.58이라면, 학생부교과 성적이 좋다면 실기 성적도 충분히 높아야 합니다. 특히 제자리 멀리뛰기와 Z-런에서 좋은 성적을 내야 합격 가능성이 높아집니다.
+결론적으로 정시 성적이 2.58이라면, 간호학과에 정시 전형으로 합격할 수 있을지 확실하지 않습니다. 실기 성적도 매우 중요하므로, 해당 실기를 준비하고 충분히 연습하는 것이 필요합니다. 또한 동의대학교의 최종 합격 기준을 확인하여 더 자세한 정보를 얻는 것을 추천드립니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비번호 7번에 대한 가능성을 언급하고 있지만, 원본 텍스트에서 명시된 "예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다"는 내용을 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되었거나 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 예비번호에 대한 가능성을 다르게 해석하고 있습니다. 원본 텍스트는 예비 7번의 가능성이 낮다고 명시했으나, 생성된 응답은 경쟁이 치열할 것이라고만 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비번호와 관련된 정보를 제공하고 있으며, 지원 과정에 대한 추가 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 예비 합격 가능성에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 예비 7번의 합격 가능성에 대한 명확한 진술이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 예비 합격 가능성에 대한 명확한 언급이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트의 핵심 메시지와의 연결이 약해 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.695369758471864</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 예비번호로 게임공학과에 지원하셨군요. 현재 모집인원은 3명으로, 정원 내에서의 경쟁이 있을 수 있습니다.
+나군 수능(일반학생전형)에서는 수능 점수와 실기/실적 점수가 반영되며, 동점자 처리 기준을 고려해야 합니다. 현재까지의 정보로는 3명이 모집되므로, 경쟁이 치열할 것으로 예상됩니다.
+추가적인 정보를 얻으시려면, 입학 안내 홈페이지 (http://ipsi. deu. ac. kr) 또는 지원 사이트 (http://www. uwayapply. com)를 참조하시거나, 대학 측에 직접 문의해보는 것이 좋습니다.
+현재 정보만으로는 확정된 결과를 말씀드리기는 어렵지만, 최선을 다해 준비하신다면 좋은 결과가 있을 것입니다. 축하드립니다!</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 기준에 대한 정보가 부족하고, 추가 합격 가능성에 대한 언급이 있지만, 원본 텍스트의 구체적인 수치와 평균 성적에 대한 정보는 포함되어 있지 않아 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가 합격 가능성에 대한 언급이 원본의 내용과 다소 모호하게 표현되어 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 수치나 정보가 부족하여 다소 덜 관련성이 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있다. 그러나 일부 문장은 더 명확하게 연결될 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 정보를 반영하지 않아 정확성이 떨어진다. 특히, 수능 성적 기준에 대한 명확한 언급이 부족하다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성이 부족하여 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 정보가 부족하여 의미 전달이 완전하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장은 다소 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지 않는다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6586783440845004</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 판단을 내리기 어렵습니다. 게임공학과의 모집요강과 수능 성적 기준 등을 확인해야 합니다. 
+특히, 동의대학교 게임공학과의 정시 전형에서 수능 반영 영역 및 기준 점수를 확인해 보세요. 만약 제공된 정보에 해당 단과대학의 수능 반영 영역이 포함되어 있고, 4.16이라는 성적이 기준점 이상이라면 추가 합격 가능성은 있습니다.
+만약 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 "https://ipsi. deu. ac. kr/main. do"를 참조해 보시는 것이 좋습니다. 해당 사이트에서 정시 전형의 모집요강을 확인하실 수 있습니다.
+또한, 지원자의 총괄적인 경쟁력을 고려해야 하므로, 학생부종합전형 등 다른 전형에서도 충분히 경쟁력이 있는지 검토해 보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급에 대한 정보를 제공하지 않고, 성적 3.75로 지원 가능성을 판단하기 어렵다고 언급하고 있습니다. 그러나 원본 텍스트에서는 3.75가 평균 등급보다 높은 성적이라고 명확히 언급하고 있어, 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경영정보학과의 평균 등급에 대한 언급이 없고, 지원 가능성을 판단하기 어렵다고 하여 일관성이 떨어집니다. 원본 텍스트는 3.75가 합격 가능성이 높다고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 문장들로 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 3.75 성적이 평균보다 높다는 사실을 간과하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성과 일관성에서 부족함이 있습니다. 그러나 관련성, 유창성, 일관성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 놓치고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7025060274282779</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 대한 최소 점수 기준이나 등급 기준이 명확히 언급되어 있지 않습니다. 따라서, 현재 주어진 성적(성적 3.75)으로 경영정보학과에 최초등록자로 지원할 수 있는지 판단하기 어렵습니다.
+추가 정보를 얻기 위해서는 동의대학교의 입시 홈페이지 (https://ipsi. deu. ac. kr/main. do)를 방문하여 해당 학과의 정시 모집 성적 기준을 확인하거나, 대학 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.
+또한, 지원 가능 여부는 단순히 성적이 높아야만 하는 것뿐만 아니라, 모집단위, 전형명 등 다양한 요인에 따라 달라질 수 있으므로, 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 4.2에 대한 최초등록자 가능성에 대한 확정적인 답변을 제공하지 않으며, 자격 조건에 대한 추가 정보를 요구하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 성적에 대한 정보는 언급되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초등록자 자격에 대한 조건을 추가로 언급하면서 원본 텍스트의 결론과는 다소 상충하는 느낌을 줍니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과 정시 성적 4.2와 관련된 질문에 대해 적절한 정보를 제공하고 있으며, 관련된 절차를 안내하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 평균 성적에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 결론과는 다소 다른 방향으로 흐르고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 정보를 포함하지 않으며, 최초등록자 자격에 대한 조건을 언급하고 있지만, 원본 텍스트의 정보와는 다소 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 질문에 대한 적절한 답변을 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있으며, 필요한 정보를 잘 전달하고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6554676821510743</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과 정시 성적 4.2의 학생이 최초등록자로 가능한지 확정적으로 답변하기 어렵습니다. 최초등록자의 자격은 주로 지원자의 재직 기간, 학력 등 다양한 요인에 따라 결정됩니다.
+현재 제공된 정보는 다음과 같습니다:
+- 경영정보학과 정시 성적 4.2
+- 최초등록자로서의 자격 조건 (재직기간, 산업체 적용범위 등)
+이러한 정보만으로는 재직 기간이나 산업체에 대한 자세한 내용을 알 수 없기 때문에, 경영정보학과 정시 성적 4.2의 학생이 최초등록자로 가능한지 확인하려면 다음과 같은 절차를 따르는 것이 좋습니다:
+1. 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 방문하여 자세한 지원 자격 조건을 확인합니다.
+2. 해당 학과와 전형에 대한 추가 정보를 얻기 위해 동의대학교 입학처로 문의하거나, 동의대학교 입학상담센터에 연락하여 상담을 받습니다.
+이런 절차를 통해 최초등록자로서 지원할 수 있는 자격 여부를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하고 있으며, 수능 점수 기준과 경쟁률 등 다양한 요인이 합격 여부에 영향을 미친다고 언급하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급과 비교하여 합격 가능성이 낮다는 점을 명확히 언급하지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 합격 가능성이 낮다는 원본의 결론과는 일치하지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 결론과는 다소 차이가 있어 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 작성되었으나, 합격 가능성이 낮다는 명확한 사실을 언급하지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 합격 가능성에 대한 질문에 적절히 대응하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6469690564410538</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에서 정시 성적이 5.33인 경우 합격이 가능한지 확정적으로 답변하기 어렵습니다. 이유는 각 전형별로 수능 점수 기준이 다르고, 경쟁률 등 다양한 요인이 합격 여부에 영향을 미치기 때문입니다.
+동의대학교 경영정보학과 일반학생전형의 경우, 정시 성적만으로 합격 가능성을 판단하기에는 부족한 정보가 많습니다. 따라서, 동의대학교의 공식 입학 홈페이지 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 동의대학교에 직접 문의하여 최신 정보와 정확한 답변을 받는 것이 좋습니다.
+또한, 동의대학교 경영정보학과의 정시 성적 기준이나 경쟁률 등을 확인하여 합격 가능성을 판단하는 것이 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 정시 모집에 대한 구체적인 정보를 제공하지 않으며, 바이오응용공학부의 평균 등급에 대한 언급이 없기 때문에 사실성 점수가 낮습니다. 그러나, 정시 모집에 대한 일반적인 정보는 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 3.33의 성적이 바이오응용공학부의 평균 등급보다 높다고 언급하지만, 생성된 응답은 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하고 있으며, 원본 텍스트와 관련이 있습니다. 그러나 바이오응용공학부에 대한 구체적인 정보가 부족하여 점수가 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 정시 모집에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 동의대학교의 정시 모집에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 특정 내용과는 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.5486939851632299</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 식품영양학과나 바이오응용공학부에 대한 정시 모집 상세 내용을 확인하기 어렵습니다. 정시 모집에서는 학생부교과 성적, 수능 점수 등 다양한 요소가 고려되므로, 정확한 답변을 위해서는 동의대학교의 2024년도 정시 모집 안내를 확인해보시기 바랍니다.
+[참고 링크] https://ipsi.deu.ac.kr/main.do
+링크에서 동의대학교의 정시 모집 안내를 확인하실 수 있습니다. 특히, 바이오응용공학부에 대한 성적 기준과 지원 자격 등을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있지만, 수능 4개 영역 표준 변환 점수에 대한 구체적인 수치가 원본 텍스트와 일치하지 않으며, 일부 정보는 추가적인 해석이 필요합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 정보가 원본과 일치하지 않거나 모순되는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 성적에 대한 질문에 직접적으로 관련된 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있지만, 일부 정보가 추가되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 수능 4개 영역 표준 변환 점수와 관련된 수치가 원본 텍스트와 일치하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 정확성에서 약간의 부족함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장에서 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6882400717179546</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인문사회과학대학 방사선학과에 지원하시려면, 현재의 성적(등급 4.4)을 고려해보겠습니다.
+방사선학과는 모집인원이 7명이고, 지원인원이 40명으로 경쟁률이 높은 학과입니다 (경쟁률 5.71). 평균 수능 4개 영역 표준 변환 점수 합의 평균은 325.29점이며, 이는 현재 성적(등급 4.4)에 비해 약간 높습니다.
+현재의 등급 4.4는 대략 수능 4개 영역 표준 변환 점수 합으로 310-320점 정도를 의미합니다. 이는 평균보다 약간 낮은 수치입니다. 따라서, 현재 성적만으로는 충분히 경쟁력을 갖추지 못할 가능성이 높습니다.
+하지만, 정시 모집에서는 학생부 종합 평가도 중요한 요소로 작용합니다. 따라서, 좋은 학생부 성적과 면접 등에서 우수한 결과를 얻는다면, 이에 대한 준비를 추가적으로 해보시는 것이 좋을 것 같습니다.
+추가적인 정보나 자세한 조언이 필요하시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급(2.8, 3.82)과 관련된 정보가 누락되어 있습니다. 또한, 경쟁률에 대한 수치(7.20, 5.50)가 원본 텍스트에 명시되어 있지 않으며, 이로 인해 사실관계가 왜곡되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 성적이 평균보다 높음을 강조하고 있지만, 생성된 응답은 2.66이 위험할 수 있다고 언급하여 상반된 메시지를 전달하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 경쟁률과 관련된 정보를 제공하고 있어 어느 정도 관련성이 있지만, 원본 텍스트의 주요 내용인 성적 평균에 대한 정보는 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관성이 떨어집니다. 각 요소 간의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(경쟁률 수치 등)를 포함하고 있으며, 이는 정확성에 부정적인 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실관계와 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 성적에 대한 긍정적인 해석과는 반대되는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장은 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5436134356121536</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66의 경쟁률이 방사선학과에서 7.20이라는 것을 고려하면, 2.66은 상대적으로 낮은 수치입니다. 평균 경쟁률이 5.50인 다른 학과들에 비해 보면, 방사선학과의 경쟁률이 높기 때문에 2.66은 좀 위험할 수 있습니다.
+하지만 정확한 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 지원자의 개인적인 성적 평균: 지원자가 자신의 성적이 좋은지 확인하세요.
+2. 학교별 경쟁률의 변동성: 이전 연도와 비교하여 현재의 경쟁률이 높은지 낮은지를 파악합니다.
+3. 지원자의 전공 적합성: 지원자가 해당 학과에 대한 관심과 적합성을 고려해야 합니다.
+만약에 위 요소들을 모두 고려하였음에도 불구하고 2.66의 경쟁률이 높다고 느껴진다면, 다른 학과를 고려해 보는 것도 좋은 방법일 수 있습니다. 더 자세한 정보나 도움이 필요하시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 3.66이라는 성적이 평균보다 높은 점을 언급하고 있습니다. 그러나 농어촌 전형에 대한 구체적인 정보는 제공되지 않아 약간의 정보 부족이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 성적과 경쟁률에 대한 논의가 일관되게 이어집니다. 다만, 농어촌 전형에 대한 구체적인 언급이 부족하여 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 잘 연결되어 있습니다. 그러나 농어촌 전형에 대한 구체적인 정보가 부족하여 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 주어진 정보에 대한 정확한 해석을 제공하고 있으며, 성적과 경쟁률에 대한 정보는 정확합니다. 그러나 농어촌 전형에 대한 구체적인 데이터가 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 정보의 부족으로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5076581125006286</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적을 가지고 경찰행정학과의 농어촌 전형에 지원하시려면, 해당 전형의 입학정원 내에서 경쟁률이 어느 정도인지 확인해야 합니다. 각 전형별로 지원자의 수와 모집인원이 다르므로 정확한 합격 가능성을 예측하기 위해서는 다음과 같은 정보를 참고해야 합니다:
+1. **모집인원**: 해당 전공의 농어촌 전형에서 모집하는 인원 수.
+2. **지원인원**: 해당 전공에 지원한 전체 인원 수.
+3. **경쟁률**: 지원인원 대비 모집인원의 비율.
+위 정보를 바탕으로, 3.66이라는 성적을 가지고 경쟁률이 높지 않은 경우 합격 가능성이 높아 보입니다. 그러나 정확한 합격 가능성은 해당 전형의 입학정원과 지원인원, 그리고 평균 성적 등을 고려하여 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하시는 것이 좋습니다. 또한, 학교에서 제공하는 예비합격자 명단이나 합격선을 확인해보시면 더욱 정확한 판단이 가능할 것입니다.
+만약 더 자세한 정보가 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 방문하여 공식 입학정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 지원한 학과에 따라 합격 확률이 달라질 수 있다는 점을 언급하고 있으며, 모집인원과 경쟁률에 따라 확률이 결정된다는 설명도 포함되어 있습니다. 그러나 원문에서 제공된 특정 학과 목록을 언급하지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일관된 내용을 포함하고 있지만, 원문에서 제시된 특정 학과 목록을 언급하지 않음으로써 일관성이 떨어집니다. 또한, 원문에서 제시된 합격 확률에 대한 구체적인 정보가 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 깊으며, 합격 확률에 대한 정보를 제공하고 있습니다. 원문에서 다룬 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문에서 제시된 특정 학과 목록이 빠져 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보의 정확성을 잘 반영하고 있지만, 특정 학과 목록을 언급하지 않아 일부 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 특정 학과 목록의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 질문에 대한 적절한 답변을 제공합니다. 그러나 원문에서 제공된 특정 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.494141524476792</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위가 나온 것은 좋은 결과일 수 있지만, 정확한 붙을 확률은 모집인원과 지원자들의 경쟁률에 따라 결정됩니다. 현재 제공된 정보만으로는 정확한 확률을 계산하기 어렵습니다.
+모집인원이 많고 지원자가 적다면 더 높은 확률이 있을 수 있지만, 반대로 모집인원이 적고 지원자가 많은 경우에는 낮아질 수 있습니다. 특히, 나군에서의 경쟁률이 중요한 요소가 될 것입니다.
+추가 정보를 얻기 위해서는:
+1. 해당 모집단위의 정원을 확인하세요.
+2. 현재까지의 지원자들의 경쟁률을 확인해보세요.
+3. 학교 입학처에 문의하여 최신 정보와 확실한 확률을 얻으시길 바랍니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하시거나 학교 입학처로 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교 법경찰행정학부의 존재를 언급하고 있으나, 원본 텍스트에서는 해당 학부가 존재하지 않는다고 명시하고 있습니다. 또한, 평균 성적에 대한 정보도 원본과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 법경찰행정학부의 모집 인원과 관련된 내용은 원본에서 언급되지 않았으며, 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교의 입학 관련 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 경찰행정학과의 성적 기준에 대한 정보와는 관련이 적습니다. 법경찰행정학부에 대한 정보는 원본과 관련이 없으므로 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약해집니다. 주제가 일관되게 유지되지만, 원본과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 법경찰행정학부의 존재와 관련된 내용은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 언급은 원본의 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.6749193766162137</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부의 정원 내 모집 인원은 40명이며, 현재 나군에서의 일반 학생 모집 인원은 2명입니다. 이는 아직 많은 공간이 남아 있는 상태로 보입니다.
+현재 정보를 바탕으로 추정해보면, 평균 성적이 95% 이상인 경우 안정권에 들 수 있을 것으로 예상됩니다. 하지만 정확한 합격 기준은 매년 변동되므로, 최신의 모집고시나 입학처 웹사이트를 통해 가장 최근의 합격 기준을 확인하는 것이 좋습니다.
+추가로, 농어촌 학생 전형이나 평생 학습자 전형 등 다른 전형에서도 합격할 수 있으므로, 해당 전형에 대한 정보도 참고하시기 바랍니다. 필요하다면 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 자세한 내용을 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 합격 가능성을 낮게 평가하고 있지만, 원본 텍스트에서는 5.33의 정시 등급이 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 5.33의 등급이 합격 가능성이 높다고 하지만, 생성된 응답에서는 합격 가능성이 낮다고 주장하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있으며, 관련된 조언도 포함되어 있습니다. 그러나 원본 텍스트의 아동학과에 대한 정보와는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 다소 부족합니다. 특히, 보육가정상담학과와 아동학과의 차이에 대한 설명이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반된 정보를 제공하고 있어 정확성이 낮습니다. 5.33의 등급이 합격 가능성이 높다고 한 원본의 내용을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 두드러지며, 전반적으로 낮은 품질을 보입니다. 사실관계, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 조언을 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적으로 적절성은 있지만, 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6184433217062317</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급을 가지고 동의대학교 보육가정상담학과에 지원하는 경우, 합격 가능성은 낮습니다.
+보육가정상담학과의 모집요강을 보면, 해당 학과는 일반적으로 국어, 수학, 영어, 사회(역사/도덕 포함) 등 주요 과목에서 높은 점수를 요구합니다. 특히, 보육가정상담학과와 같은 교육 관련 분야에서는 한국사의 중요성이 크므로 한국사에서도 높은 점수를 받는 것이 필요합니다.
+5.33이라는 등급을 가지고 지원하는 경우, 주요 과목에서 낮은 점수를 받았거나 한국사에서 낮은 점수를 받은 것으로 보입니다. 이럴 경우 합격 가능성은 매우 낮습니다.
+만약에 5.33이 정확한 등급이라면, 다른 교육 분야나 사회과학 분야의 학과를 지원하는 것이 더 적합할 수 있습니다. 예를 들어, 인문사회과학대학의 심리학과나 경찰행정학과 등을 고려해 볼 수 있습니다.
+만약에 추가 정보가 필요하거나 자세한 조언이 필요하다면, 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있으며, 예비 12번을 받은 경우의 합격 가능성에 대한 언급도 있습니다. 그러나 '보육가정상담' 전형에 대한 구체적인 정보가 없다는 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, '보육가정상담'이라는 특정 전형에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 충원 합격자 발표에 대한 일반적인 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 예비 번호와 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '보육가정상담' 전형에 대한 언급이 추가되어 있어 약간의 일관성 저하가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 특정 전형에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 특정 전형에 대한 언급이 추가되어 있어 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 이해도를 저하시킬 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6185928322980306</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 '보육가정상담' 충원 합격 3차에 대한 정보는 제공된 자료 내에서는 확인할 수 없습니다. 해당 전형의 최종합격자 발표일은 2024년 2월 15일이며, 이전 단계에서 예비 12번을 받았다는 점을 고려하면 합격 가능성은 있습니다.
+하지만 정확한 합격 가능성을 판단하기 위해서는:
+1. 전형별 동점자 처리기준 확인
+2. 해당 전형의 최종합격자 발표 결과를 기다리는 것이 좋습니다.
+더 자세한 정보나 지원에 대한 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시거나 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 유아교육학과의 평균 등급을 3.82로 언급했으나, 원본 텍스트에서는 4.18로 명시되어 있어 사실과 다릅니다. 또한, 치위생학과의 평균 등급이 4.18이라고 했지만, 원본 텍스트에는 해당 학과에 대한 정보가 없습니다. 이러한 점에서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 평균 등급을 잘못 언급하고 있으며, 원본 텍스트의 정보와 일치하지 않습니다. 또한, 경쟁률에 대한 정보도 원본 텍스트에서 제공되지 않은 내용이므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 가능성을 다루고 있으며, 질문의 주제와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 없거나 부정확하여 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 요소를 다루고 있지만, 정보의 흐름이 매끄럽지 않고 일부 내용이 원본 텍스트와 일치하지 않아 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 유아교육학과의 평균 등급을 잘못 언급하고 있으며, 원본 텍스트의 정보와 상충하는 부분이 많아 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다. 관련성은 어느 정도 있지만, 다른 차원에서의 부족함이 전체 점수를 낮추고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하고 있으나, 일부 내용이 원본 텍스트와 일치하지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7633950318509282</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 4개 영역 등급은 상당히 높은 점수입니다. 평균이 4.18인 의료보건생활대학의 치위생학과와 비교했을 때, 이 점수는 약간 더 높습니다. 그러나 평균이 3.62인 물리치료학과와 비교하면 상대적으로 높은 점수입니다.
+유아교육학과에 대한 가능성은 다음과 같습니다:
+1. **평균 등급**: 유아교육학과의 수능 4개 영역 등급 평균이 3.82로, 이는 4.75보다 약간 낮습니다.
+2. **경쟁률**: 유아교육학과의 경쟁률은 각 모집단위별로 다르지만, 대체적으로 높지 않은 편입니다. 예를 들어, 한의예과(수학&lt;확률통계&gt;)의 경쟁률이 7.00인 반면, 유아교육학과는 보다 낮은 경쟁률을 가질 수 있습니다.
+3. **모집 인원**: 유아교육학과의 모집 인원도 다른 학과에 비해 적습니다.
+따라서, 4.75라는 점수로 유아교육학과에 지원하는 것은 가능성이 있지만, 경쟁률이 낮지 않은 경우에도 충분히 높은 점수를 가지고 있습니다. 그러나 유아교육학과의 모집 인원과 경쟁률을 고려하면, 다른 학과보다는 약간 더 어려울 수 있습니다.
+결론적으로, 4.75라는 점수로 유아교육학과에 지원하는 것은 가능하지만, 경쟁률과 모집 인원 등을 고려하여 최종 결정을 내리는 것이 좋습니다. 추가 정보나 자세한 상담이 필요하다면, 대학 입학처 또는 관련 컨설팅 서비스를 이용해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 변환 점수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 구체적인 수치를 포함하지 않고 있습니다. 또한, 4.16이라는 점수가 평균보다 낮다고 언급했으나, 원본 텍스트에서는 합격 가능성이 높다고 명시하고 있습니다. 이로 인해 사실성 점수는 3으로 평가됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.16의 점수로 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 이 점수가 낮다고 평가하고 있습니다. 이러한 불일치는 일관성 점수를 낮추는 요소입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교할 때 일부 정보가 누락되어 있어 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 점수를 낮추는 요소가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 주요 사실과 상충하는 내용을 포함하고 있습니다. 특히, 4.16 점수에 대한 해석이 원본과 다르기 때문에 정확성 점수는 3으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서의 문제로 인해 전반적인 품질 점수는 3으로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하며, 주제에 적합한 내용을 담고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5778552539926247</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급 변환 점수를 가지고 보육가정상담학과의 일반학생전형에 지원하여 충원을 달성할 확률을 판단하기 위해서는 해당 모집단위의 평균 변환점수와 경쟁률 등을 고려해야 합니다.
+보육가정상담학과의 경우, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 452.82입니다. 이는 제시된 변환점수가 약간 높으므로 경쟁이 치열할 것으로 예상됩니다.
+제시된 변환점수인 4.16은 평균보다 약간 낮습니다. 따라서 충원을 달성하기 위해서는 후보순위 내에서 상대적으로 좋은 위치에 있어야 합니다. 동의대학교의 경쟁률과 충원 합격자 수를 고려하면, 4.16이라는 점수로는 충분히 선발될 확률이 낮다고 볼 수 있습니다.
+하지만 이는 추정이며 실제 결과는 모집단위의 지원 인원 및 경쟁 상황에 따라 달라질 수 있으므로, 최종 합격 여부는 동의대학교에서 발표하는 결과를 확인해야 합니다. 
+추천되는 조치로는:
+1. 다른 전형이나 단과대학을 추가로 지원하여 보다 안전한 입학 가능성을 확보합니다.
+2. 동의대학교에 직접 문의하여 최신 정보와 개인적인 상황을 고려한 조언을 받습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 잘못된 정보를 제공합니다. 원문에서는 "소프트웨어융합학과는 정시로 지원할 수 없습니다."라고 명확히 언급하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하며 정시 지원 가능성을 언급하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문에서 정시 지원이 불가능하다고 명시했음에도 불구하고, 생성된 응답은 정시 지원을 위한 조건과 정보를 제공하고 있습니다. 이는 명백한 모순입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 질문의 핵심인 소프트웨어융합학과의 정시 지원 가능성에 대한 답변이 아닙니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제와 관련된 정보가 제공되지만, 질문에 대한 적절한 답변이 아닙니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다릅니다. 소프트웨어융합학과에 대한 정시 지원 불가능성을 무시하고, 소프트웨어공학부에 대한 정보를 제공하는 것은 사실적으로 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 질문의 맥락을 무시하고 다른 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부적절함으로 인해 질문에 대한 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3698324845692136</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 정시로 지원하려면, 해당 학과의 경쟁률과 평균 등급을 고려해야 합니다. 제공된 데이터에서 소프트웨어공학부는 다음과 같은 정보가 있습니다:
+- 모집 인원: 30명
+- 지원 인원: 146명
+- 경쟁률: 4.87
+- 영어 평균 등급: 3.30
+이를 바탕으로 소프트웨어공학부에 정시로 지원하려면, 대략적으로는 **평균 3.5등급 이상** 받아야 경쟁력을 갖추게 될 것입니다. 하지만 이는 단순 추정이며, 실제 입학 가능성을 결정하는 요인은 다양합니다. 예를 들어, 수능 점수, 학생부 평가 등도 중요한 역할을 합니다.
+더 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 최신 정보를 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 서류 평가와 면접의 중요성을 강조하고 있습니다. 그러나 원문에서 언급된 "학생부 교과성적"에 대한 구체적인 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 서류 평가와 면접의 중요성을 설명하고 있습니다. 다만, 면접에서 '소프트웨어'와 관련된 내용이 중요하다는 점은 원문에 명시되어 있지 않으므로 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높으며, 서류 준비와 평가에 대한 구체적인 조언을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 원문에서 언급된 "학생부 교과성적"에 대한 구체적인 설명이 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행하고 있지만, 일부 정보 누락과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6314029907305504</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접에서는 지원자의 학업역량, 전공적합성 등을 평가하기 위해 다양한 질문이 제기되며, 이 중에서도 '소프트웨어'와 관련된 내용은 중요하게 다뤄질 수 있습니다. 그러나 면접 점수보다는 서류평가에서의 성적이 더 큰 비중을 차지하므로, 서류 준비에 더 많은 시간과 노력을 기울이는 것이 좋습니다.
+또한, 서류 평가에서는 학교생활기록부와 제출서류를 통해 지원자의 공동체역량, 학업역량, 전공적합성 등을 종합적으로 평가합니다. 따라서, 서류 준비 시에는 다음과 같은 내용을 철저히 검토하고 준비해야 합니다:
+1. **공동체역량**: 참여한 동아리 활동, 봉사활동 등에 대한 구체적인 사례와 결과를 기재하세요.
+2. **학업역량**: 고교에서의 학업 성적과 관련된 내용을 정확하게 기재하세요. 특히 수능 점수는 중요하므로 정확히 기재해야 합니다.
+3. **전공적합성**: 지원하는 전공(계열)에 대한 관심과 이해를 보여주는 사례와 활동을 기재하세요.
+따라서, 서류 준비 시에는 위의 내용들을 철저히 검토하고, 실제 경험과 활동을 구체적으로 기재해야 합니다. 또한, 과장된 내용이나 부정적인 사례는 피하는 것이 좋습니다. 
+더 궁금한 점이 있다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보가 부족하며, 다른 학과와의 비교를 언급하고 있지만, 소프트웨어공학부에 대한 구체적인 정보가 부족하여 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 소프트웨어공학부에 대한 정보가 부족하고, 다른 학과와의 비교를 통해 혼란을 줄 수 있다. 원본 텍스트와의 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 응답은 동의대학교 소프트웨어공학부에 대한 질문에 대한 답변을 제공하고 있지만, 다른 학과와의 비교가 포함되어 있어 약간의 주제 이탈이 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉬운 편이다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조가 다소 분산되어 있으며, 소프트웨어공학부에 대한 정보가 명확하게 전달되지 않아 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 동의대학교 소프트웨어공학부에 대한 평균 성적 정보를 제공하지 않으며, 다른 학과와의 비교가 포함되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 정보의 부족과 일관성 문제로 인해 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 내용을 다루고 있지만, 소프트웨어공학부에 대한 구체적인 정보가 부족하여 의미 전달이 완벽하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 혼란스러울 수 있어 완전한 명확성은 부족하다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7711050327137203</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 인문사회과학대학 중에서 특정 학과의 최초합격 가능성 판단이 어렵습니다. 정시 성적이 4.08이라는 점은 중어중국학과나 일본학과 등에서 어느 정도 경쟁력을 가질 수 있지만, 소프트웨어공학부는 일반적으로 더 높은 점수를 요구하는 학과일 가능성이 있습니다.
+동의대학교 인문사회과학대학 소프트웨어공학부의 최초합격자들의 성적 평균을 확인해보면 도움이 될 것입니다. 만약 해당 정보가 제공되지 않았다면, 동의대학교 웹사이트나 입학처에 문의하여 최신 정보를 얻는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문해보시거나, 동의대학교 입학처로 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 잘못 언급하고 있습니다. 또한, 경쟁률과 평균 수능 등급에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 소프트웨어융합학과와 소프트웨어공학부를 혼동하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보와 혼동된 내용을 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 소프트웨어융합학과와 소프트웨어공학부를 혼동하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6241314990985836</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 지원하려면, 평균 5등급은 충분하지 않을 가능성이 있습니다. 해당 학과의 경쟁률이 매우 높습니다 (4.87), 그리고 평균 수능 4개 영역 등급이 4.12로 낮지 않습니다.
+특히, "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균은 330.11이고, 이는 상대적으로 높은 점수입니다. 따라서 평균 5등급만으로 충분한 성적을 보여줄 수 있을 것으로 예상되지는 않습니다.
+하지만, 정확한 가능성을 판단하기 위해서는 해당 학과의 최종 등록자들의 성적 분포와 지원 자격 등을 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 대학 입시 관련 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 4.28이라는 성적이 신소재공학과의 평균 등급보다 높다는 점을 언급하고 있습니다. 그러나 평균 점수와 표준 편차에 대한 구체적인 수치는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 요인들을 언급하면서 원본 텍스트의 결론과 다소 상충하는 느낌을 줍니다. 원본 텍스트는 합격 가능성이 높다고 판단했지만, 생성된 응답은 여러 요인에 따라 달라질 수 있다고 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학과에 합격할 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 평균 점수와 표준 편차에 대한 구체적인 수치가 원본 텍스트에 없으므로 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본 텍스트와 다소 상충할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6079052010190563</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 수 있는지는 여러 요인에 따라 달라집니다. 주요 요인으로는:
+1. **모집단위와 지원 인원**: 해당 모집단위에서 지원 인원이 얼마나 되었는지, 경쟁률은 어느 정도인지 확인해야 합니다.
+2. **평균 점수와 표준 편차**: 동의대학교 신소재공학과의 평균 점수와 표준 편차를 확인하여, 4.28이 얼마나 높은 점수인지를 판단합니다. 예를 들어, 평균 점수가 378.15이고 표준 편차가 21.81이라면, 4.28은 상당히 높은 점수입니다.
+3. **경쟁률**: 경쟁률이 얼마나 되는지 확인해야 합니다. 경쟁률이 높다면, 평균 점수가 높아야 합격할 확률이 높습니다.
+4. **개인의 특성**: 개인의 특성과 경험, 서류평가 등도 중요한 요소입니다.
+위 정보를 바탕으로 동의대학교 신소재공학과에 지원하는 경우, 4.28이라는 점수는 상당히 높은 점수로 보이지만, 정확한 합격 가능성 판단을 위해서는 해당 모집단위의 평균 점수와 경쟁률 등을 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화 문의를 통해 확인하시거나, 제공된 링크인 "https://ipsi. deu. ac. kr/main. do"를 참조하여 더 자세한 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 포함되어 있지만, 자기소개서가 필요 없다는 원문과는 다르게 특정 유형의 전형에 대한 추가 요구 사항을 언급하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 자기소개서가 필요 없다고 명확히 언급하고 있지만, 생성된 응답은 다른 전형에 대한 정보를 추가하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 질문에 대한 답변을 포함하고 있지만, 불필요한 추가 정보가 많아 원문과의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 한국어가 아닌 다른 언어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 약해 논리적인 흐름이 부족합니다. 원문에 대한 직접적인 답변이 아닌 추가 정보가 많아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 자기소개서가 필요 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 요구하는 정보와는 다른 방향으로 나아가고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 원문과의 관련성이 떨어져 이해하기 어려운 부분이 있습니다. 특히, 한국어 사용자에게는 외국어로 작성된 부분이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4586842798478147</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的地，韩国的大学入学考试（수능）中，并没有明确要求考生提交个人陈述或自我介绍信。但是，根据您提供的信息来看，对于一些特定类型的招生方式如“나군 학생부종합”，可能会有额外的要求，比如提交个人陈述等。
+如果您申请的是通过一般学生选拔的常规专业，通常不需要提交个人陈述。主要依据是您的学生成绩、学科成绩以及可能的一些附加材料（例如：实践经历证明等）来评估您是否适合该专业。
+但是，请确认具体的招生简章或咨询目标学校的入学办公室以获取最准确的信息。如果不确定，可以访问以下网站进行详细查询：
+https://ipsi. deu. ac. kr/main. do
+这样您可以获得最新的招生要求和指南。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급과 관련된 정보를 제공하지만, 특정 학과의 평균 등급과 표준 편차에 대한 정보는 원본 텍스트와 일치하지 않습니다. 예를 들어, 방사선학과와 물리치료학과의 평균 등급 점수는 원본 텍스트에 명시되어 있지 않으며, 이는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 특정 학과에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 동의대학교의 전반적인 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 특정 학과에 대한 세부 정보를 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 등급과 추가 모집에 대한 정보를 다루고 있습니다. 그러나 특정 학과에 대한 세부 정보가 추가되어 있어 약간의 주제 이탈이 발생합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 특정 학과에 대한 정보가 추가되면서 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급과 관련된 정보를 제공하지만, 특정 학과의 평균 등급과 표준 편차에 대한 정보는 원본 텍스트와 일치하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 특정 학과에 대한 정보가 추가되면서 약간의 맥락 이탈이 발생합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 특정 학과에 대한 정보가 추가되면서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7240572456050418</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 등급 점수가 주어졌을 때, 추가 모집에 들어갈 확률은 여러 요인에 따라 달라질 수 있습니다. 주요 요인으로는 해당 단과대학 및 모집단위의 경쟁률, 지원 인원, 충원 합격자 수 등을 고려해야 합니다.
+예를 들어, "의료보건생활대학"의 "방사선학과"와 "물리치료학과"에 대한 정보를 보면:
+- 방사선학과: 평균 4.18 등급 점수, 표준 편차 0.20
+- 물리치료학과: 평균 3.62 등급 점수, 표준 편차 0.15
+이 정보를 바탕으로 판단하면:
+- 방사선학과의 경우, 평균보다 약간 높은 점수가므로 경쟁률이 높을 가능성이 있습니다.
+- 물리치료학과의 경우, 평균보다 낮은 점수이므로 경쟁률이 더 낮을 수 있습니다.
+따라서 4.5라는 점수는 방사선학과에서는 경쟁력을 갖추지 못할 수도 있지만, 물리치료학과에서는 충분히 경쟁력이 있을 수 있습니다.
+추가 모집에 들어갈 확률을 정확하게 예측하기 위해서는 해당 단과대학 및 모집단위의 최종 지원 인원과 충원 합격자 수 등을 확인해야 합니다. 이를 통해 더 구체적인 판단이 가능합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나, 동의대학교 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 정시 등급에 대한 구체적인 정보를 제공하지 않지만, 원본 텍스트의 내용을 바탕으로 합격 가능성에 대한 일반적인 정보를 언급하고 있습니다. 그러나 원본 텍스트의 구체적인 수치(영어 등급 평균 5.06, 수능 4개 영역 등급 평균 5.78)를 명시하지 않아 일부 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 신소재공학과의 정시 등급에 대한 정보가 없다는 점에서 일관성이 부족합니다. 원본 텍스트의 구체적인 수치와 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 신소재공학과의 정시 등급에 대한 정보를 찾는 방법을 안내하고 있습니다. 따라서 원본 텍스트와의 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 일반적인 정보를 제공하고 있으나, 구체적인 수치와 정보가 누락되어 있어 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으나, 구체적인 사실과 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있으나, 구체적인 수치가 누락되어 있어 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6761929067054638</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 신소재공학과의 정시 등급 정보를 확인해보겠습니다. 제공된 데이터에서 신소재공학과에 대한 명확한 정시 등급 정보가 직접적으로 나와 있지 않습니다.
+신소재공학과는 공과대학 계열에 속하며, 일반적으로 대학별로 정시 모집을 위한 최저 학력 기준이 설정되어 있습니다. 하지만 이 데이터에서는 특정 학과의 정시 등급에 대한 정보가 없습니다.
+따라서 동의대학교 신소재공학부의 정시 등급에 대해 확인하려면, 동의대학교의 공식 웹사이트를 참조하거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다. 
+입학 관련 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, "약간 높아졌을 가능성"이라는 표현은 명확한 사실이 아니라 추측에 기반한 내용입니다. 원본 텍스트에서 제공된 378.15점과 447점의 비교는 정확하지만, 생성된 응답은 불확실성을 강조하고 있어 사실성과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, "약간 높아졌을 가능성"이라는 주장은 원본 텍스트의 명확한 사실과 모순됩니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학과의 입학 가능성에 대한 논의를 포함하고 있습니다. 그러나 약간의 추측이 포함되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장에서의 불확실성으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 기반으로 하지만, "약간 높아졌을 가능성"이라는 표현은 정확한 정보가 아닙니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 전반적인 품질은 보통 수준입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 추측적인 표현이 포함되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 문장이 길어 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7744658425886816</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높아졌을 가능성은 있습니다. 하지만 이는 단순히 작년 데이터만으로 판단하기에는 한계가 있습니다. 실제 입학 결과는 여러 요인에 의해 결정되므로, 작년보다 약간 낮은 점수라도 충분한 지원 자격과 경쟁력을 갖추고 있다면 가능성을 배제할 수 없습니다.
+특히, 표준 변환 점수가 동일하다면, 입학사정관들이 학생의 전반적인 능력과 적합성 등을 종합적으로 평가하는 과정에서 개인적 특성이나 경쟁력을 고려할 수 있기 때문에 작년보다 약간 낮은 점수라도 충분히 입학할 수 있는 가능성은 있습니다.
+만약 더 자세한 정보나 분석이 필요하다면, 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인하거나, 학교 관계자와 상담하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답에서 "신소재공학과의 경우 평균점수가 463.36으로 높은 편입니다."라는 부분은 사실과 다릅니다. 원본 텍스트에서 제공된 평균 점수는 378.15이며, 이와 비교할 때 생성된 응답의 수치는 잘못된 정보입니다. 또한, "표준편차가 2.74"라는 정보도 원본 텍스트에 명시된 표준편차와 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 특히 평균 점수와 표준편차에 대한 잘못된 정보가 포함되어 있어, 원본 텍스트와의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 신뢰성이 떨어집니다. 그러나 지원자의 합격 가능성에 대한 논의는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 정보의 정확성이 부족하여 독자가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답의 정보는 원본 텍스트와 비교했을 때 정확성이 낮습니다. 평균 점수와 표준편차에 대한 잘못된 수치가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 적절한 부분이 있지만, 잘못된 정보로 인해 신뢰성이 떨어집니다. 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5524726466895092</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 수능 점수가 4.1~4.2로 변환된다면, 신소재공학과의 경우 평균점수가 463.36으로 높은 편입니다. 현재 예상 점수(4.1~4.2)는 약간 낮아 보이지만, 표준편차가 2.74로 상대적으로 작기 때문에, 근접한 수치를 가진 지원자들과 경쟁을 해야 합니다.
+정확히 붙을 확률을 예측하기 위해서는:
+1. 현재의 점수가 정시 성적 변환표에 얼마나 가까운지 확인해야 합니다.
+2. 해당 학과의 경쟁률을 고려해야 합니다 (현재 7.20입니다).
+3. 지원자의 개인적인 특성, 추천서 등 기타 평가 요소도 중요합니다.
+따라서, 현재 예상 점수로는 약간 낮은 편이지만, 경쟁률과 변환표를 고려하면 가능성이 있습니다. 정확한 확률을 알기 위해서는 실제 변환표와 지원자의 개인적인 특성을 종합적으로 평가해야 합니다.
+추천드리면:
+1. 변환표를 확인하여 현재 점수가 어느 범위에 해당하는지 파악합니다.
+2. 학교의 입학처나 관련 부서에 문의하여 자세한 정보를 얻습니다.
+3. 추가적으로 지원자의 개인적인 특성과 추천서 등을 준비합니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세히 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 성적 정보는 원본 텍스트와 일치하지 않으며, 특히 평균 점수와 등급이 잘못된 수치로 제시되었습니다. 원본 텍스트의 평균 점수와 표준 편차를 정확히 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히, 성적에 대한 정보가 다르게 제시되어 원본의 내용을 왜곡하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 대한 정보를 제공하고 있으며, 지원자의 성적에 대한 조언을 포함하고 있어 관련성이 높습니다. 그러나 일부 정보는 부정확하여 완전한 관련성을 보이지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 배열이 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 성적 정보는 원본 텍스트와 크게 다르며, 정확한 사실을 반영하지 않고 있습니다. 이는 응답의 신뢰성을 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 제공된 정보의 정확성이 떨어져 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.8212870849433687</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 경우, 나군 수능(일반학생전형)에서 지원자의 경쟁률이 높아 보입니다. 해당 학과의 모집인원은 15명이며, 지원 인원이 많을 것으로 예상됩니다.
+성적에 대한 정보는 정확한 평균 점수와 표준 편차를 제공하지 않았지만, 일반적으로 수능 성적이 높아야 하는 학과임을 알 수 있습니다. 나군 수능(일반학생전형)에서의 평균 점수와 표준 편차는 다음과 같은 경향성을 보입니다:
+- **국어 + 수학 + 탐구(2개 과목) (가산점 포함) 표준 변환 점수 합**: 419.33
+- **영어 등급 평균**: 3.00
+- **수능 4개 영역 등급 평균**: 3.98
+이러한 정보를 바탕으로, 동의대학교 인공지능학과에 지원하려면 다음과 같은 성적을 갖추는 것이 중요할 것으로 보입니다:
+1. **국어 + 수학 + 탐구(2개 과목) (가산점 포함) 표준 변환 점수 합**: 419.33 이상
+2. **영어 등급**: 3.00 이상
+3. **수능 4개 영역 등급 평균**: 3.98 이상
+이러한 성적을 기반으로 지원하시면, 동의대학교 인공지능학과에 가는 확률이 높아질 것으로 예상됩니다. 하지만 최종적인 합격 여부는 경쟁률과 지원자의 수능 점수가 결정되므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적이 높은 점수라고 언급하고 있지만, 실제로는 각 학과의 평균 성적과 비교했을 때 충원 합격 가능성을 명확히 제시하지 않고 있습니다. 또한, "물리치료학과"와 "식품영양학과"에 대한 언급이 있지만, 원본 텍스트에서는 이들 학과의 평균 성적이 명시되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 특정 학과에 대한 평균 성적을 언급하면서 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다. 예를 들어, "의생명공학과"의 평균 성적에 대한 언급이 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27의 성적에 대한 분석을 제공하고 있으며, 관련된 학과에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 학과 목록과 평균 성적에 대한 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 특정 학과에 대한 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 특정 학과의 평균 성적에 대한 언급이 원본 텍스트와 일치하지 않으며, 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 정보의 부정확성으로 인해 완전한 적절성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6093206757293912</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 4개 영역 등급 평균치에 비해 상당히 높은 점수입니다. 위에서 제공된 데이터를 바탕으로 분석하면, 대부분의 모집단위에서는 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균이 450점 이상이며, 일부 단과대학에서는 470점 이상입니다.
+특히, "물리치료학과"와 "식품영양학과"는 평균 점수가 상대적으로 낮은 편이지만, 여전히 360점 이상의 평균을 보이고 있습니다. 따라서, 5.27이라는 점수로는 이러한 단과대학들에서 충분한 경쟁력을 가질 수 있을 것입니다.
+하지만, "의생명공학과"와 같은 과목에서는 평균이 상대적으로 높은 편입니다 (426점 이상). 따라서, 5.27이라는 점수로는 이러한 과목들에서 충분한 경쟁력을 가질 수 있을 것입니다.
+결론적으로, 5.27이라는 점수로는 대부분의 단과대학에서 충분한 경쟁력을 가질 수 있을 것으로 보입니다. 하지만, 특정 단과대학이나 모집단위에서는 더 높은 점수가 요구될 수 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 학부모 상담 등을 통해 확인하는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 직접 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 합격 가능성을 판단하기 어렵다고 언급하고 있으며, 이는 원본 텍스트의 정보와는 다소 상충합니다. 원본 텍스트는 4.2의 정시 등급이 평균보다 높아 합격 가능성이 높다고 명시하고 있습니다. 그러나 생성된 응답은 추가적인 정보를 제공하고 있어 일부 사실을 반영하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있으며, 특히 합격 가능성에 대한 판단이 상충합니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 판단이 다르기 때문에 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 합격 가능성에 대한 해석이 다소 다르게 나타나고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.5885927818086034</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 소프트웨어공학부에 대한 정확한 합격 가능성을 판단하기 어렵습니다. 동의대학교의 모집단위와 전형 방식, 지원 자격 등이 변경될 수 있기 때문입니다.
+현재까지의 정보로는 다음과 같은 점을 고려해야 합니다:
+1. **전형 유형**: 동의대학교 소프트웨어공학부가 어떤 전형으로 모집되는지 확인해야 합니다 (예: 수능, 실기/실적, 학생부종합 등).
+2. **성적 평균 및 표준 편차**: 제공된 정보에서 특정 단과대학의 성적 평균을 확인할 수 있습니다. 예를 들어, 인문사회과학대학 소프트웨어공학과의 경우, "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"의 평균이 419.33이고 표준 편차가 9.73입니다.
+3. **경쟁률**: 특정 단과대학에서 지원 인원과 모집 인원을 비교하여 경쟁률을 확인할 수 있습니다. 예를 들어, 인문사회과학대학 소프트웨어공학과의 경우, 지원 인원이 25명이고 모집 인원이 7명이므로 경쟁률은 약 3.57입니다.
+4. **전형 변경 사항**: 정시모집군 변경이나 전형 요소 반영 비율 등의 변경 사항을 확인해야 합니다.
+따라서, 정확한 합격 가능성을 판단하기 위해서는 동의대학교 소프트웨어공학부의 최신 모집요강과 전형 방식 등을 확인하시기 바랍니다. 필요하다면 대학에 직접 문의하거나, 입시 컨설팅 서비스를 이용하는 것도 좋은 방법입니다.
+더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.92라는 성적이 합격 가능성이 높다는 점을 잘 반영하고 있습니다. 그러나, 수능 반영 영역 및 성적 산출 방법에 대한 추가 정보는 원본 텍스트에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 잘 따르고 있으며, 3.92라는 성적이 화학환경공학부의 평균 등급보다 높은 성적이라는 점을 일관되게 언급하고 있습니다. 다만, 수능 반영 영역에 대한 설명이 추가되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 화학환경공학부에 지원할 수 있는지에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 수능 반영 영역에 대한 설명이 추가되어 있어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92라는 성적이 합격 가능성이 높다는 점을 정확하게 전달하고 있습니다. 그러나 수능 반영 영역에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 추가 정보로 인해 약간의 일관성과 정확성이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 질문에 대한 적절한 답변을 제공합니다. 그러나 수능 반영 영역에 대한 추가 정보는 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6893258730286477</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적을 가지고 화학환경공학부의 일반학생전형에 지원이 가능한지 확인해보겠습니다.
+주요 정보를 요약하면:
+- 동의대학교 정시 학생부종합 전형에서 3.92라는 성적이 나왔습니다.
+- 지원하고자 하는 학과는 화학환경공학부입니다.
+화학환경공학부의 모집단위와 수능 반영 영역을 확인해보겠습니다:
+1. **수능 반영 영역 및 잔영 비율**:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+2. **수능 전형성적 산출방법**:
+   - 화학환경공학부는 일반학생전형에서 "국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수"로 성적을 산출합니다.
+3. **성적 산출 예시**:
+   - 예를 들어, 국어 100점, 수학 95점, 영어 4등급(123점), 탐구 80점일 경우,
+     (100 + 95 + 123 + 80) ÷ 4 = 97.75
+이를 바탕으로 3.92라는 성적을 가지고 화학환경공학부에 지원할 수 있는지 판단해보겠습니다.
+만약 3.92라는 성적이 국어, 수학, 영어, 탐구의 표준점수로 산출되었다면, 이는 충분히 학교에서 요구하는 점수를 넘을 가능성이 있습니다. 그러나 정확한 판단을 위해서는 실제 성적 분포와 학교별 요구 점수를 확인해야 합니다.
+만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시거나, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 제시된 평균 점수(377.52)와 표준 편차(28.94)는 원본 텍스트에 명시된 정보와 일치하지 않으며, 이는 잘못된 정보입니다. 원본 텍스트는 4개 영역의 표준 변환 점수 합 평균이 385.99라고 명시하고 있습니다. 따라서, 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.25라는 점수가 최초합격자의 평균값보다 높다고 판단하고 있지만, 생성된 응답은 평균 점수보다 약간 높은 점수가 필요하다고 언급하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격 가능성에 대한 정보를 제공하고 있습니다. 그러나 평균 점수와 표준 편차에 대한 잘못된 정보로 인해 일부 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 특히, 평균 점수와 관련된 부분에서 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 평균 점수와 표준 편차는 원본 텍스트의 정보와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 신뢰할 수 있는 정보로 평가하기 어렵습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수는 중간 정도로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6692332557701045</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 동의대학교 화학환경공학부에서 평균 점수가 377.52이고 표준 편차가 28.94인 수능 4개 영역 (가산점 포함) 표준 변환 점수 합에 해당합니다.
+평균 점수와 표준 편차를 이용하여 합격 가능성을 판단하면 다음과 같습니다:
+- 평균 점수: 377.52
+- 표준 편차: 28.94
+이 경우, 평균 점수보다 약간 높은 점수가 필요하므로 합격 가능성이 있습니다. 그러나 정확한 합격 가능성은 해당 대학의 최종 합격 기준을 확인해야 합니다.
+따라서, 4.25라는 점수로는 합격 가능성이 있지만 확실하지 않습니다. 동의대학교 화학환경공학부의 최종 합격 기준을 확인하시거나, 해당 대학에 문의하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에서도 추가 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.2라는 점수가 합격 가능성을 정확히 예측하기 어렵다고 언급하고 있지만, 원본 텍스트에서는 4.2점이 합격 가능성이 존재한다고 판단된다고 명시되어 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 합격 가능성에 대한 해석이 상충하는 부분이 있습니다. 원본 텍스트는 4.2점이 합격 가능성이 있다고 명시했으나, 생성된 응답은 이를 부정적으로 해석하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 평균 성적과 경쟁률에 대한 고려사항을 언급하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있으나, 4.2점에 대한 해석이 원본과 다르게 나타나 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실성과 일관성에서 약점을 보이고 있어 종합적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 합격 가능성에 대한 해석이 다소 다르게 나타나 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 복잡할 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.636625382600002</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터만으로는 특정 학과의 합격 가능성을 정확히 예측하기 어렵습니다. 영화학과에 대한 지원 자격과 경쟁률, 평균 성적 등을 고려해야 합니다.
+현재 정보를 바탕으로 다음과 같은 점을 주목해볼 수 있습니다:
+1. **영화학과의 모집 상태**: 제공된 정보에서 특정 학과의 모집 상태가 변경되었거나 신설되었는지 확인해야 합니다.
+2. **평균 성적**: 지원자의 평균 성적이 4.2라면, 이는 대부분의 학과의 평균 점수보다 높은 편입니다. 그러나 특정 학과의 경우 경쟁률이 매우 높을 수 있으므로 이를 고려해야 합니다.
+3. **경쟁률**: 지원자의 성적이 4.2라면, 이는 대부분의 학과에서 좋은 성적일 것입니다. 그러나 특정 학과의 경우 경쟁률이 매우 높을 수 있으므로 이를 고려해야 합니다.
+따라서, 정확한 합격 가능성을 예측하기 위해서는:
+1. **영화학과의 모집 상태와 평균 성적**을 확인해야 합니다.
+2. **경쟁률**을 확인하여 지원자의 성적이 경쟁자들 중 어느 정도 위치에 있는지 파악해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다. "https://ipsi. deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 주요 내용을 정확하게 반영하고 있으며, 추가적인 정보도 포함되어 있습니다. 그러나 원본 텍스트에 명시된 내용 외에 추가된 정보가 있어 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 추가된 정보가 원본의 흐름과 완벽하게 일치하지는 않지만, 전반적으로 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 단계가 잘 연결되어 있습니다. 그러나 추가된 정보가 원본의 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 그러나 원본에 없는 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 추가된 정보도 적절하게 연결되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.83391006106489</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가를 진행하며, 정성·종합적으로 평가합니다. 또한 면접 시 개인신상(수험번호, 성명, 출신고교, 부모직업 등) 노출 금지 및 교복 착용 금지도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
